--- a/data/hotels_by_city/Dallas/Dallas_shard_76.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_76.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="889">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Andithenana</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Karen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r540453499-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
   </si>
   <si>
     <t>GOOD:  Comfortable pillows and bedBAD:  From the front desk guy (a young man who never took off his headphones) who made excuses about the outside doors that wouldn't open with our room keys and slow computers by telling us the owners of the were cheap and "very mean" and "wouldn't fix stuff" to the dirty bathroom and microwave, desk chair held together with black duct tape (seriously!), and coffee stains running down the white walls in the room, they get a D- for cleanliness and upkeep. The outdoor chairs had bottoms that had partially rotted out and wouldn't be safe to sit in.RECOMMEND: Stay at the Holiday Inn down the road.More</t>
+  </si>
+  <si>
+    <t>Jim H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r532189980-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
@@ -230,6 +239,9 @@
 Breakfast was included in the...My wife and I spent the weekend in Glen Rose for our 20th Anniversary getaway. We went to the Promise Friday night (which was awesome- see my other review). We stayed the night so we could go to Fossil Rim the next morning (followed by lunch at the Loco Coyote). The location was perfect- very near The Promise. The lobby of the hotel was clean, but around 85 degrees- much too hot to be comfortable (this was the first week of October- it was cooler outside than it was in the lobby). They put us in a room with a king bed and a jacuzzi tub where another bed would normally be- that was a little odd, but OK. The room was clean and the A/C worked well (much to my wife's dismay since she is always cold!). Wife used the large jacuzzi tub and enjoyed it.Getting the shower to work was tricky- and we ended up calling the front desk to ask how to get the water diverted to the shower (it turns out, you have to pull down the little ring around where the water comes out of the faucet- something we had never experienced).Since our room was at the end of the hall on the first floor, it would've been great to use the door at the end of the hall to load/unload. But the exterior card reader wasn't working!Breakfast was included in the price- but what a disaster. There were lots of people waiting in line for 1 waffle maker. They ran out of eggs and milk. When they finally brought more eggs (scrambled omelet type things), they were hard and I had to cut off a 1/3rd of it to eat the rest. The orange juice was more like orange water- nasty. And the temperature in the lobby where breakfast was served still soared around 85 degrees. There wasn't enough seating. It would've been better to go eat at Sonic across the street!Overall, it was a mediocre experience from a mediocre hotel. The staff was nice and accommodating, but it was just OK. And it wasn't all that cheap- I paid around $125+ for a Friday night.More</t>
   </si>
   <si>
+    <t>holliepatrick4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r496551024-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -251,6 +263,9 @@
     <t>Stayed for one night on Saturday, June 24, 2017.  Air conditioner was broken in the lobby/breakfast area.  it had rained, not flooded and the carpet was soaked all along the back of the breakfast area.  Towels were laying all over the floor and did not cover the wet areas completly.  There were no signs warning to stay away because there were exposed outlets along that wall where it was soaked.  The employees were very nice as they were sweating (actually showing through their clothes and on their faces).  They tried to cover well for the upper management but we did find out that the air had been out for many days.  It was 93 degrees outside that day in Texas.  The underneath of the chairs in the dining room were falling apart, the bottoms hanging down and stains all over them.  It was disgusting,  The pool and hot tub were a whole other awful situation.  it had algae everywhere which we noticed as we walked out to get into it.  It was not something that happened overnight.  I always stay at comfort Suites and this was an embarrassment to their name.  This hotel needs to be investigated.More</t>
   </si>
   <si>
+    <t>kmaddy2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r496358963-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -272,6 +287,9 @@
     <t>Good- breakfast, bed, pillow, shower, pool (2nd day) 1st day was green.Bad - Jennifer,  worst customer service person ever met. She scruggs her shoulders, talks over you instead of listening to you, acts as if I 'm bothering her. Doesn't look at you when talking (Asperger?).  She needs to get in another field. Unfortunately, the other two people, I forgot their names, one older woman and a cheerful young man, they were great in greeting guests. Manager (or owner) needs to walk the grounds. In the 3 short days I stayed, I noticed things that needs to be fixed. Lobby floor ladie's restroom should pop unlock as you exit leaving it unlocked for the next guest. The front desk clerk should not have to ask the guest to remember to unlock it as you leave!  One of the lights on 3rd floor is crooked. In Room 303 the caulking in the nice shower is non existing and the door needs a door stop so it doesn't slam against the wall.  On the 2nd floor stairs, the 1st step has a deeper step catching you by surprise.More</t>
   </si>
   <si>
+    <t>taxonvacation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r489927336-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -290,6 +308,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Jen_in_Co</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r489081234-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -305,6 +326,9 @@
     <t>Hotel is nice, room was clean (except the water spots on the bathroom mirror), breakfast area was well maintained, staff was friendly (especially the young man taking care of the breakfast area on the weekends). The pool and 2 (!) Hot tubs were very clean and refreshing on a hot Tx afternoon. Bed was a tad hard but that's personal preference. Overall, enjoyable stay.</t>
   </si>
   <si>
+    <t>jim m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r489075689-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -317,6 +341,9 @@
     <t>Hotel is safe and clean, grounds could use some landscaping but are well maintained, Staff was helpful and kind, Breakfast was very good with a large variety to choose from and was kept well stocked by the young man that greets guest and makes sure they get what they need. A very nice experience and very Relaxing place to stay. I would recommend this Hotel to anyone looking for a quiet relaxing stay.</t>
   </si>
   <si>
+    <t>gerialexander</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r483402933-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -335,6 +362,9 @@
     <t>We really enjoyed the Comfort Inn and Suites in Glen Rose.  The staff was very friendly, the free breakfast was great, and the room was nice and big.  They have a full breakfast, and the girl who was working it made sure things never ran out and was always asking if we needed anything else!  The pool area was nice.  There was a hot tub and a very small little pool for toddlers and babies to sit in.  It was actually a really pretty view and made you feel like you were somewhere else as there is a very large rock wall right next to the swimming pool.  Not a lot of lawn chairs, so in busy season, you may want to get down there early.  I would have given the place five stars easy, but the walls were very thin.  Unfortunately, we had a couple who were having some activities next door that I would have preferred my 4 year old not hear and question.  We could also clearly hear their conversation through the walls when they were talking in normal tones.  Had there not been anyone right next to us, I wouldn't have known the difference.  Alas, there was, and it resulted in an early exit from the room.  Otherwise, I'd highly recommend this property if you are visiting Glen Rose!More</t>
   </si>
   <si>
+    <t>cutbait</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r460238322-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -362,6 +392,9 @@
     <t>Called around town as I have been in this area before . Gave me a better rate by calling and not booking online . May be the time of the year , and also during the week . But not but a few people staying here . Noticed not many at other hotels either . The rooms are very clean , and large . They do have the usual breakfast .  I would stay again .More</t>
   </si>
   <si>
+    <t>Audrey V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r457569834-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -380,6 +413,9 @@
     <t>This was a very nice hotel.  I can honestly say it was one of the cleanest hotels that I've stayed in.  The beds were comfortable, the bathroom was great, and breakfast was decent.  There were plenty of options, and my kids loved the huge Texas shaped waffles. The juices were a little watered down, but overall it was very good.  My one and only complaint is the call from the front desk that woke my family (including my two young kids) up around 10:00 pm.  There was a noise complaint from another guest, and I guess since I had kids with me, they assumed it was coming from our room, which was completely inaccurate. My kids were in bed at 8:00 pm and my husband and I were asleep by 9:00 pm. We then got another call at 11:30, which I assume was from the person who was complaining about the noise. He or she didn't bother to say anything  when I answered, they just sat there while I said "Hello? Hello?" Then they hung up the phone.  So now my family was woken up twice in one night, and I was unable to get back to sleep for several hours after that. I hate when people are jerks, and I hate when I or my kids get blamed for something that we had nothing to do with.  Needless to say our sleepless night made for a rough drive back...This was a very nice hotel.  I can honestly say it was one of the cleanest hotels that I've stayed in.  The beds were comfortable, the bathroom was great, and breakfast was decent.  There were plenty of options, and my kids loved the huge Texas shaped waffles. The juices were a little watered down, but overall it was very good.  My one and only complaint is the call from the front desk that woke my family (including my two young kids) up around 10:00 pm.  There was a noise complaint from another guest, and I guess since I had kids with me, they assumed it was coming from our room, which was completely inaccurate. My kids were in bed at 8:00 pm and my husband and I were asleep by 9:00 pm. We then got another call at 11:30, which I assume was from the person who was complaining about the noise. He or she didn't bother to say anything  when I answered, they just sat there while I said "Hello? Hello?" Then they hung up the phone.  So now my family was woken up twice in one night, and I was unable to get back to sleep for several hours after that. I hate when people are jerks, and I hate when I or my kids get blamed for something that we had nothing to do with.  Needless to say our sleepless night made for a rough drive back to Houston on Sunday, but we made it.More</t>
   </si>
   <si>
+    <t>vvbell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r445979283-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -407,6 +443,9 @@
     <t>The lady at the front desk was fast and helpful. The hotel was clean and in decent shape. The room was clean, and the beds were very comfortable with 4 pillows each.  It was quiet, but they were not very busy. The bathroom was clean, and the water pressure was ok. For the price, I was very satisfied. I would stay here again. More</t>
   </si>
   <si>
+    <t>1CRH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r444908510-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -431,6 +470,9 @@
     <t>We really enjoyed our stay. The room was very clean. The bed and pillows were comfortable. The staff (Lisa is the only name I got) were very nice and helpful. Breakfast was good, and fresh, and had plenty of choices. A little more water pressure from the shower head would be nice.More</t>
   </si>
   <si>
+    <t>Jason B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r433702008-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -461,6 +503,9 @@
     <t>The room was nice but the water pressure was so low that it took over an half hour to fill the bathtub up because shower was out of question with the little trickle of water that came out.... I told the front desk and the lady said, there was nothing they could do.  Will never stay there again!More</t>
   </si>
   <si>
+    <t>redrealtor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r431376040-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -485,6 +530,9 @@
     <t>After driving a few hours from south Texas, we decided to stop in Glen Rose. My go to smaller hotels were all booked so we stopped in here! Way less expensive than others in town and it was really nice! I was very pleased with the large bedroom and bath. The bed was really comfortable and room came with mini frig, microwave and coffee maker. Location is up from the highway so room was very quiet. Morning breakfast was free and it served its purpose. I'll definitely stay here again on my next stop in Glen Rose. More</t>
   </si>
   <si>
+    <t>toballou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r429296365-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -509,6 +557,9 @@
     <t>We stayed here a few weeks back, and we a great experience at this hotel.  There were 4 of us in 2 rooms, and both of them were lovely rooms.  The staff greeted us as if it was mid day, even though it is actually more like 1 AM.Breakfast was good, and served hot.Rooms were relatively quiet considering the hotel was rather full, and lots of kids were there.More</t>
   </si>
   <si>
+    <t>scott l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r427122738-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -533,6 +584,9 @@
     <t>Very clean, great front desk, very nice breakfast, will go back. Breakfast includes eggs, sausage, waffles, fruits, cereals, yogurt. Visited Fossil Rim Park and Dinosaur State Park.   Tons of activities in the area. More</t>
   </si>
   <si>
+    <t>MariannLitz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r425689090-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -560,6 +614,9 @@
     <t>We were there for a ultra bike race. The staff was so courteous and kind as we were coming at all hours to sleep and freshen up. Coffee and icy cold lemon water was available 24/7. It was quite hot (in the 90s), the icy cold water was welcome relief.More</t>
   </si>
   <si>
+    <t>Dennis P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r415756474-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -584,6 +641,9 @@
     <t>The room exceeded my expectations. It was large, clean, and comfortable. Every staff member I encountered was both polite and informative. The pool area is just as is pictured. Breakfast items were fresh. I observed hotel staff constantly attending to food items and cleaning the breakfast area during breakfast. On the downside, the television in the room did not work. In addition, the temperature of the lobby and the breakfast area seemed a bit warm.More</t>
   </si>
   <si>
+    <t>Colleen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r415350985-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -608,6 +668,9 @@
     <t>I read some mixed reviews on this hotel but it was excellent!!  The rooms were very clean as well as the lobby.  The breakfasts were very good an continually refilled with lots of options.  All the staff smiled and greeted us at every turn.  The rooms had all the amenities that one would expect.  The manager ever went to the extent of showing our grandchildren the dinosaur fossils and artifacts in the lobby, taking them out of the displays and explaining each to them.  The pool is perfect!!!!! Previous comments were made regarding the incomplete pool.  There are 3 in good working order.  Lots of good restaurants nearby like the Big Cup and lots to do in Glen Rose. There were 3 or 4 activities in town while we were there.More</t>
   </si>
   <si>
+    <t>taffien</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r393962786-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -635,6 +698,9 @@
     <t>Walking in, the lobby was attractive but oh so warm!  Texas summers demand AC and I was concerned.  Rachel greeted us at the counter and took excellent care of us.  She reassured me the rooms were very cool, and they were.  The lobby &amp; hallways and breakfast room were warm and that kept me from giving them the fifth star rating.  The rooms were well equipped, very cool and the beds were just fantastic!  I was a grandmother traveling with 2 6-year olds &amp; 2 11 year olds so got a room with 2 king beds.  It was perfect.  Two of the three pools were operational and clean.  The breakfast bar was really well equipped with sausage, eggs, waffles, juices, coffee, etc.  That was a life saver for us in a small town with few dining choices.  We were on the 3rd floor and had zero noise from outside.  Many TV channels to choose from, soft towels - just a few extra bonus points for those as well.  We would definitely stay there again.  Rachel made it all work for us and she is a true asset for the facility.More</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r388262079-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -662,6 +728,9 @@
     <t>The only reason I am giving 4 Stars is because the pool and kids pool and hot tub. The pool needed to have the bugs cleaned out but we just swam on one side. The other two were unfortunately out of order. They even have a grill if you wanted to grill out. The rooms have a refrigerator and microwave. Very clean. The staff was very kind and accommodating and the maid service was impeccable. A delicious hot breakfast and will definitely stay again. More</t>
   </si>
   <si>
+    <t>471francesca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r386273623-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -689,6 +758,9 @@
     <t>There's isn't anything negative i can say about this experience. The beds were awesome and those pillows (I wanted to take one home!) just cradled your head.  The staff was very friendly and efficient.  Great recommendation for a local watering hole, breakfast staff was friendly and courteous, clean . . . . yada, yada, yada . . . will visit Comfort Inns again!More</t>
   </si>
   <si>
+    <t>Lppmyst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r382573180-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -713,6 +785,9 @@
     <t>We arrived on June 3rd right after the flooding in Texas and were informed the pool and first floor had some flood issues, but the breakfast area still had great coffee and waffles.  The entire staff was very courteous and provided us with the extra pillows we needed.  The location is close to a few places to eat, and a gas station selling fried pies.  Fossil Rim Wildlife center was a blast.More</t>
   </si>
   <si>
+    <t>77cliffy77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r378343795-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -740,6 +815,9 @@
     <t>We stayed for 3 nights during the week while on vacation.  We were there the week before Memorial Day Weekend.  All the staff were courteous &amp; friendly &amp; very helpful.  Our room was clean &amp; very spacious.  The beds were comfortable.  I love the closet &amp; the refrigerator/microwave/coffee maker setup.  It's very neat.  They were also generous with towels.  We always had plenty which is great after spending part of the day at/in the river &amp; coming back to clean up before going back out.  The pool was out because of being struck by lightning, but the river was perfect at the time &amp; we probably had more fun there than at the pool anyway!  We hope to be able to make it back next year for vacation!More</t>
   </si>
   <si>
+    <t>polite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r377441161-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -764,6 +842,9 @@
     <t>We booked on Priceline because it's last minute and everything we found was full except through Priceline. We are traveling with our 2year old so we need a king bed. We were denied because we booked on Priceline! Had we booked through Comfort Inn directly if would have been no problem. There is no latch lock on the door for Saftey. The hot tub is brownish green and the pool is 1/4 full. I read a post from a couple weeks ago and the same complaints were stated then. Apparently they were waiting on a pool pump. I guess pool pumps take several weeks by mail?? So disappointed so far. The room is nice and updated but now my husband will have to sleep I a separate bed because the one they have us has two fills! Boo! Oh well. More</t>
   </si>
   <si>
+    <t>dawnbT7548OO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r374288394-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -788,6 +869,9 @@
     <t>Exceptional Experience.  Staff is friendly, professional and very helpful. Needed to change a reservation, Sissy at Front Desk did exactly as I requested. Both rooms top notch.  Housekeeping staff friendly and helpful.  HIGHLY recommend this hotel.More</t>
   </si>
   <si>
+    <t>C r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r372001255-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -810,6 +894,9 @@
   </si>
   <si>
     <t>Stayed in Glen Rose while visiting family. Pros: The place was clean and the staff was super friendly. Michelle, at the front desk, was especially pleasant and helpful. Cons: the pool was dirty and the outdoor hot tub green and slimy. I would stay there again, hopefully maintenance will step it up and clean up the pool area. More</t>
+  </si>
+  <si>
+    <t>Cm1515</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r370123350-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
@@ -837,6 +924,9 @@
 The refrigerator was not working in our room.  I called the front desk and was told to please "give me a few minutes to see if I have a replacement" or something similar.  They never got back to me so I had to put ice in the refrigerator to keep items cold. The ice machine on the second floor was not working and empty. I had to go to another floor to get ice. When I tried to use the coffee machine in the room, someone else's used coffee "pod" was still in the machine so it obviously had never been checked or cleaned.  The roll-away bed mattress was a ridiculously uncomfortable thick plastic squeaky mattress clearly meant for non-toilet-trained toddlers rather than adults. No one above toddler age could ever use it and actually sleep. The pull-out couch mattress was so thin it was like laying on bare...I will preface my review by saying the front desk staff was very friendly and the bed was very comfortable.  However, there were so many "little" things that were unpleasant during our stay that it really affected our overall experience negatively.  A few examples: Key entry didn't work at rear entrance.  I was told by staff the battery was probably running low, but this caused us to have to haul all of our personal luggage around the side of the hotel, as we had already unloaded it at the back entrance.The refrigerator was not working in our room.  I called the front desk and was told to please "give me a few minutes to see if I have a replacement" or something similar.  They never got back to me so I had to put ice in the refrigerator to keep items cold. The ice machine on the second floor was not working and empty. I had to go to another floor to get ice. When I tried to use the coffee machine in the room, someone else's used coffee "pod" was still in the machine so it obviously had never been checked or cleaned.  The roll-away bed mattress was a ridiculously uncomfortable thick plastic squeaky mattress clearly meant for non-toilet-trained toddlers rather than adults. No one above toddler age could ever use it and actually sleep. The pull-out couch mattress was so thin it was like laying on bare coils. The fresh fruit at breakfast ran out early. With all of that said, this is a centrally-located convenient hotel with friendly staff, comfortable beds, and a decent breakfast.  I think that the hotel could fix many of these problems very easily and make future guests' stays much more pleasant.More</t>
   </si>
   <si>
+    <t>Katy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r356800198-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -864,6 +954,9 @@
     <t>The room was very clean- but there were some flaws- The fence in the parking lot was broken and falling over, there was visible water damage by the ac unit in our room,  and the pools were dirty and discolored. However,  we did enjoy the stay- fluffy pillows,  comfortable  bed,  nice view of the creek/cliff. More</t>
   </si>
   <si>
+    <t>Madembrisky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r356524732-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -882,6 +975,9 @@
     <t>This is a typical Comfort Inn, the rooms were clean, the staff was nice and we enjoyed our breakfast.  I was affordable, and not too far from all the  attractions- we loved Dinosaur World, and the Wildlife park, I would recommend anyone to stay here! More</t>
   </si>
   <si>
+    <t>candjlindsey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r354873815-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1002,9 @@
     <t>The hotel was very well kept and our room was great. The staff was very nice, especially Michelle and Sissy. They were very nice and took the time to show my daughter and son some of the "fossils" they have on display (Glen Rose is known as the "dinosaur capital of Texas"). It was a birthday trip for my daughter, and she had the best time. Free breakfast is included as well as a workout room, business center, laundry facility, outdoor pool, and hot tub. The hotel was not busy at all and most days we had the breakfast area to ourselves. The pool was open but it was too cold still for swimming, but the kids did enjoy the hot tub. We did have a lot of rain during our stay which caused a leak around the ac/heater unit. We did have free WiFi, but it was very difficult getting a good reception. Our cell phone service was not great either, but it was not just in the hotel. I guess Sprint service is not popular in the area. Overall I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>TYLERJOE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r339795721-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1032,9 @@
     <t>I think this property is fairly new, and it is well maintained.  The rooms are clean and there is no odor, which is great, no musty smell or mold.  We were on the second floor and the ice machine was broke, so that was a negative.  And the ice machine on the first floor was strange, never seen this before, just open this big door and here is all this ice?  And a scoop on top to fill your container. That to me was not very sanitary, so I did not get any ice.  Instead of the hotels that have ice come out of a big machine with a dispenser.  The breakfast was very limited, very few choices, so that was disappointing.  And the other comment I could make is that the employees stand right outside in front smoking, which is not good.  Would I stay here again, yes, because the rooms are clean and the staff is super nice.More</t>
   </si>
   <si>
+    <t>TexasLadies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r327417703-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1062,9 @@
     <t>In September 2015, we went as a group of 60 from Tomball, Tx to Glen Rose to attend The Promise play.  The hotel manager worked with me for 3 months to make this happen. Once we got there, he and his staff went above and beyond to accommodate all of us.  They also gave us a great rate and the rooms were clean and very nice. They made each and everyone of us feel like royalty and made us feel so welcome.  We were allowed to use their kitchen area for our "after party and helped me unload and store munchies close so it would be more convenient.  They offered us the use of their serving dishes and the night staff even helped us clean up afterwards!  Since it was after midnight when we finished cleaning up, they offered (without me even asking) to give me a late check-out.  They even stored the leftovers downstairs so I wouldn't have to take everything upstairs to my room and then back downstairs to load up again.  The staff was always checking with everyone to see if there was anything anyone needed.  We look forward to our next group trip in September 2016.  Wouldn't think of staying anywhere else.More</t>
   </si>
   <si>
+    <t>Laurie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r324666347-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1092,9 @@
     <t>We have been thinking about movie to the Glen Rose are and decided to come stay for a couple of days to explore the town.  We were great by Michelle when we checked in and she treated us like royalty. She was very informative about the town and where we should eat abound visit.  Our room was spotless and extremely comfortable. The hot breakfast was good with many choices.  We will definetly stay here again and highly recommend it. More</t>
   </si>
   <si>
+    <t>Jaime L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r323984105-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1122,9 @@
     <t>Stayed here for Spartan Race weekend. The hotel went out of the way to welcome use.  They had breakfast ready for everyone running. They had waivers printed so you did not have to wait at the venue to fill them out.  No rude signs about mud or dirt.  As a hotel, the breakfast was good. Basic hot and cold options. They say continental, but there were biscuits, eggs, and sausage.Rooms were a good size and clean.  WiFi was not the best. Little slow.More</t>
   </si>
   <si>
+    <t>Ralph T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r319958610-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1149,9 @@
     <t>We normally wouldn't do a Comfort Inn but we took a chance and we were super surprised with the quality of the room.  Very clean and the bed was comfortable.  Only recommendation would be that they put bigger TV's in the rooms.More</t>
   </si>
   <si>
+    <t>Rona1959</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r316344737-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1176,9 @@
     <t>I loved the comfortable bed and pillows.  The breakfast was good both mornings and items were replaced frequently.  The staff was very friendly and they put us in a room away from the working crowd that stays there.More</t>
   </si>
   <si>
+    <t>ducksoup1959</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r308201544-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1203,9 @@
     <t>We arrived around noon on a Fri., had no problem checking in.  Staff was friendly and courteous.  The room was nice, clean and comfortable.  Only thing that would have made it better would be to have more water pressure in the shower.  Breakfast was only fair which is the reason for 4 stars rather than 5.  Biscuits were never really hot and could have used gravy.  We didn't use the pool or hot tub so can't comment on that.  We would stay again.More</t>
   </si>
   <si>
+    <t>Melinda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r306539005-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1233,9 @@
     <t>Took the grands for some sightseeing and hiking.  Hotel services were excellent.  Hotel was a bit run down.  Looked like there was water damage, peeling wallpaper, etc.  One of the reasons we stayed there was because of the pool.   It was awful.  Kiddies pool was green, hot tub was cold, regular pool was full of ants.More</t>
   </si>
   <si>
+    <t>Amr H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r300300108-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1260,9 @@
     <t>My wife and our 3 year old daughter loved the place. We didn't spend much time in our room but it was pretty standard and very clean. The staff was very helpful and told us all about the town. My one complaint would be the breakfast was limited and not very yummy. The eggs and biscuits were very much box/mix made and didn't give any illusion of freshness or yumminess. It was fine though, we all had a filling breakfast and were on our way. Would definitely stay again if we visit!More</t>
   </si>
   <si>
+    <t>jusbFtWorth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r283750617-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1314,9 @@
     <t>We enjoyed the comfortable, well dressed beds.  Our room was very clean and quite.  The pool is outside but we didn't use it. We had no problems with our room.  The downside was the below average breakfast. The variety during our 3 day stay was awful.  There were  a couple of apples in the fruit bowl the first day and just 3 sad looking oranges the last day.  The pastries look old and dried out. The hot food was the same processed egg  and sausage patties all three days.  The coffee and juice were weak tasting.  This is just not the breakfast that we expect from this chain or for an almost $100/night room. Also for some reason the workout room was closed.  My teenaged grandson wanted to use it.More</t>
   </si>
   <si>
+    <t>Jewleswoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r278475121-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1341,9 @@
     <t>We chose this hotel to bring our Girl Scout troop of 30+ girls and parents for their price, but between their friendliness w this many kids running around their hotel, and the GM taking the girls on a guided tour of the creek bed outback to view the dinosaur tracks, makes us glad we chose it. Definitely will recommend to all, and we will use when come back with the family.More</t>
   </si>
   <si>
+    <t>Van V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r271105432-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1368,9 @@
     <t>Stayed here for the annual dulcimer festival. There were five of us: two adults and three teens.  This is either a new hotel or recently remodeled.  The suite was very large and we had plenty of room. The staff were all very friendly and were quick to help.  The only issue we had was the mattress on the sofa bed was very thin and sagged horribly.  I'd bring an air mattress next time.More</t>
   </si>
   <si>
+    <t>Dana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r265316474-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1398,9 @@
     <t>We will absolutely stay in this hotel again!!  Excellent, very clean room. Wonderful,  friendly, helpful staff. It was easy to miss due to the huge empty nightclub in front of it, but don't give up the search.  This is the place to stay when visiting Glen Rose!More</t>
   </si>
   <si>
+    <t>Lindarene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r263276636-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1428,9 @@
     <t>There were just a few choices of chain hotels in Glen Rose and this looked like one of the newest. Overall it was a very pleasant stay. The hotel itself is behind another building so it's a little confusing to find. Check in was quick and the room was fine. I did hear more guest noise than I have at other hotels. I could easily hear the fact that there was a family next door but they weren't rowdy so it was fine. I also noticed that the bathroom sink didn't look like it had been wiped down which makes me wonder how clean the rest of the room actually was. Check out was also easy and all the staff I encountered were quite friendly and helpful. Overall, a good place for a night or two.More</t>
   </si>
   <si>
+    <t>slyefocks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r262546288-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1455,9 @@
     <t>We stayed here to see the the dinosaur tracks - price is good, comfort level was excellent, spacious and the service was great. We will definitely make this hotel our "home away from home" when we visit. Thanks.More</t>
   </si>
   <si>
+    <t>texi l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r259618546-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1338,6 +1482,9 @@
     <t>When we checked in, the staff were polite and friendly. Our room was the usual choice style, nothing dirty. I was quite surprised as a lightbulb in the bathroom was not working. We called the front desk and the lady said "I'll see what I can do" but it did not get fixed! We went down to the fitness center and discovered that some of the machines were broken, not a significant problem to me. As for the breakfast, the waffle fill line cups were incorrect, the batter overflowed from the sides of the waffle maker. Also, there was no fruit except for yogurt and the eggs were patty style, the kind you buy frozen at the store. There is a Brookshires Supermarket about a mile west. The hotel is in the same area as a chicken express and another building directly in front of it. We didn't bring our swimming gear because we didn't think it was warm enough. It is in close proximity to Fossil Rim, Dinosaur Valley State Park, and Dinosaur World. When we checked out, just a few hours ago, it was quick and efficent. Overall, it is a great place to relax after a day of sightseeing. I would probably stay there again.More</t>
   </si>
   <si>
+    <t>Mak1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r252834628-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1509,9 @@
     <t>Bed was super comfy. Hotel was quiet and didn't here hwy noise as it sits a bit back from road a bit. Breakfast was simply ok. Not in walking distance to downtown, but glen rose is small so easy to drive the 2 mins to downtown and park.More</t>
   </si>
   <si>
+    <t>montanaglobetrotter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r250807354-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1386,6 +1536,9 @@
     <t>The rooms were uniform, but the staff was excellent and friendly. From the morning shift to the late night shift. The pool was beautiful, with a rock face back drop, it was a perfect end to a night of southern fun! Thanks for such a great stay!More</t>
   </si>
   <si>
+    <t>MTJJEWT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r237813777-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1566,9 @@
     <t>We stayed one night and enjoyed our stay. Check in was quick and easy. Staff were nice and helpful. The room was nice and clean and the bed very comfortable. There was no noise at night and the breakfast was really good.More</t>
   </si>
   <si>
+    <t>GregE330</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r237486917-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1593,9 @@
     <t>Wonderful stay for the Spartan.  Great service, Pam the assistant manager (and the rest of the staff) went out of their way to make us feel like family and take care of us.  Rooms had really high ceilings, very roomy, super clean, and beds really comfortable.  This will be my number one if we ever make it back to Glen Rose.  More</t>
   </si>
   <si>
+    <t>noplacetogo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r232584850-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1620,9 @@
     <t>We had a nice one night stay here. The desk help was very helpful and friendly. Our room was clean and neat. Breakfast was sufficient, not as much as some other hotels. The walls are a little thing based upon the noise we could here from next door. Luckily they must have gone to sleep around the time we did. Complete facility seemed to be well maintained. Even with a sign on the highway, the hotel is easy to miss seeing. We would stay here again.More</t>
   </si>
   <si>
+    <t>Txluv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r230378184-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1650,9 @@
     <t>Friendly staff, comfortable bed, and everything throughout was clean.  Stayed alone in a spacious room.  The hotel was very busy, but managed very nicely with convenient, good lighted parking.  A short drive to the Dinosaur State Park, Fossil Rim Wildlife Preserve, and quaint downtown.  The pie shop on the square is heavenly!More</t>
   </si>
   <si>
+    <t>SuziQinTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r229313129-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1506,6 +1671,9 @@
     <t>I normally stay at the Holiday Inn in Glen Rose (several trips a year to this town) but got a good deal on a King Suite through Priceline.  The room was clean and big!  Breakfast was below average, even for the "free" hotel breakfasts that I don't usually care for to begin with (fruit almost non-existent and no healthy choices in my opinion).  I called the night before to ask for an early check-in.  I was told it would be no problem.  When we arrived a little after 1pm (I had asked for 1 pm check-in) the woman at the desk (asst. mgr., I believe) was argumentative, advising me that I really shouldn't be allowed to check in until 3 pm.  She said this even after I had told her I had called the night before.  The TV didn't work and it took about 30 minutes for someone to come up and fix the problem.  Nice room - clean hotel - just not impressed with the customer service offered.  Will probably go back to Holiday Inn next time.More</t>
   </si>
   <si>
+    <t>modern-day-Griswold</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r220574879-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1701,9 @@
     <t>We stayed here one night while visiting the Dinosaur Park and antique shopping.  The hotel and room were spacious, clean and well maintained.  The female employee at the front desk made us feel very welcome and gave us helpful information about local attractions.  We had a comfortable night's stay and enjoyed breakfast the next morning.  It was a great value for the price.More</t>
   </si>
   <si>
+    <t>Pgagne3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r219115350-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1725,9 @@
     <t>very nice place clean and comfortable beds ,nice friendly staff great location, Stayed there with my wife and it was very nice place and will stay again next time im in the area . if your in the area check it outMore</t>
   </si>
   <si>
+    <t>raydon46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r215979894-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1752,9 @@
     <t>We rented a king bed suite with two beds for the kids. The hotel was clean, the staff was friendly, and the room was large enough to not be cramped. The breakfast was adequate. We did not use any of the other amenities but they looked OK.More</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r211929349-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1782,9 @@
     <t>This is a great place to stay when visiting Dinosaur Valley State Park. The managers here are very professional, yet down home friendly. The decor is nice, the rooms in very good condition, the breakfast just fine. Very very comfortable beds. The managers are very knowledgeable about area paleontology - just ask!  We will definitely stay here again when we re-visit the state park!More</t>
   </si>
   <si>
+    <t>Vikkijk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r208172156-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1806,9 @@
     <t>This hotel is located close to Fossil Rim and Dinosaur Valley. The staff is helpful and so sweet. The rooms are huge! It has a microwave and a small fridge which ended up being a heaven sent! The breakfast was amazing! It has the regular food plus danimals yogurt, two waffle makers, and sausage! It was a great hotel and I definitely recommend it! More</t>
   </si>
   <si>
+    <t>krcorbin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r196133911-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1827,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>ada11s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r186391522-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1662,6 +1848,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>GenThom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r181686698-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1869,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>cricket7591</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r175190373-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1893,9 @@
     <t>Property was clean and well maintained. Our room was nice and clean but.....we arrived to a room of 89 degrees on a day when the temp outside was 100 degrees. Asked the lady at the front desk about the A/C not being on and was told the owner would not allow the air to be turned on ahead of time. This did not make me happy as we had booked our room ahead of time and felt the A/C should have been on to allow the room to start cooling for our arrival. Also, the lady at the front desk pointed out that the A/C was controlled by a wall thermostat which we already discovered once we entered the room and found the A/C was not on. She called later to check to see if the room had cooled down any, which it had not, then proceeded to tell me again about that the A/C was controlled by the wall thermostat. I didn't appreciate being treated as if I was too dumb to get it the first time. We arrived at 3pm and the room temp dropped 4 degrees by 6:15 when we left to see "The Promise". Needless to say the time we wanted to rest was not comfortable due to the room temp. Thankfully when we go back the room around 11pm the room was finally comfortable and the rest of our stay was better. The owner needs...Property was clean and well maintained. Our room was nice and clean but.....we arrived to a room of 89 degrees on a day when the temp outside was 100 degrees. Asked the lady at the front desk about the A/C not being on and was told the owner would not allow the air to be turned on ahead of time. This did not make me happy as we had booked our room ahead of time and felt the A/C should have been on to allow the room to start cooling for our arrival. Also, the lady at the front desk pointed out that the A/C was controlled by a wall thermostat which we already discovered once we entered the room and found the A/C was not on. She called later to check to see if the room had cooled down any, which it had not, then proceeded to tell me again about that the A/C was controlled by the wall thermostat. I didn't appreciate being treated as if I was too dumb to get it the first time. We arrived at 3pm and the room temp dropped 4 degrees by 6:15 when we left to see "The Promise". Needless to say the time we wanted to rest was not comfortable due to the room temp. Thankfully when we go back the room around 11pm the room was finally comfortable and the rest of our stay was better. The owner needs to rethink this policy of not allowing the A/C to be turned on in preparation for the guests who have reserved rooms ahead of time. I am a firm believer in "word of mouth" advertisement - good or bad- as long as it is the truth. I will spread the work to family and friends to look at other hotels AND ask about the A/C policy for those hotels before considering this one if travelling in the summer.More</t>
   </si>
   <si>
+    <t>camshell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r167718273-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1719,6 +1914,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Debbie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r161901398-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1740,6 +1938,9 @@
     <t>I stayed in this hotel the weekend of May 18-19, 2013 with my grandchildren who live in Granbury. I was a little nervous at first, staying outside of Granbury (all the hotel were full). Much to my surprise, this hotel is only about 15 minutes away. Becky at the front desk was an angel during check-in and throughout our stay. She is wonderful and will do anything possible to make your stay comfortable and relaxing. The room was nice and accommodating. The pool was perfect for my grandchildren. I would highly recommend this hotel to anyone staying in Glen Rose. I drove to Burleson to go shopping at Kohl's and the drive was about 45 mins away but a nice drive.More</t>
   </si>
   <si>
+    <t>Rosie56538</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r161658976-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1758,6 +1959,9 @@
     <t>After evaluating and personally previewing three of the major chain hotels and one boutique hotel in town, we selected the Comfort Inn and Suites, Glen Rose, as the place to book our weekend, based largely on our preview and previous reviews by others.  Unfortunately, looks were deceiving.  I booked three rooms months before our expected arrival date.  The booking clerk confirmed my request for three rooms on the third floor overlooking the back of the hotel (away from the highway).  Upon arrival, we were told that one of the rooms was on the front (highway side) of the hotel and could not be changed because all other rooms on the back of the hotel had been previously booked, prior to my making reservations.  I was also told that those who made those earlier reservations were in town to help with the clean-up from the tornadoes that struck Granbury the previous week.  Does that make any sense?  While our room looked put together at first glance, closer inspection revealed that a picture was missing from the wall (screw holes were apparent), our hair dryer did not work (it smelled of burnt wire), the breakfast was worse than any other cheap hotel "full" breakfast I've ever had (think boiled sausage patty and a rectangular, mono-color egg), the TV didn't work unless we unplugged and re-connected the TV and cable box power each time we wanted to turn it on (then it went...After evaluating and personally previewing three of the major chain hotels and one boutique hotel in town, we selected the Comfort Inn and Suites, Glen Rose, as the place to book our weekend, based largely on our preview and previous reviews by others.  Unfortunately, looks were deceiving.  I booked three rooms months before our expected arrival date.  The booking clerk confirmed my request for three rooms on the third floor overlooking the back of the hotel (away from the highway).  Upon arrival, we were told that one of the rooms was on the front (highway side) of the hotel and could not be changed because all other rooms on the back of the hotel had been previously booked, prior to my making reservations.  I was also told that those who made those earlier reservations were in town to help with the clean-up from the tornadoes that struck Granbury the previous week.  Does that make any sense?  While our room looked put together at first glance, closer inspection revealed that a picture was missing from the wall (screw holes were apparent), our hair dryer did not work (it smelled of burnt wire), the breakfast was worse than any other cheap hotel "full" breakfast I've ever had (think boiled sausage patty and a rectangular, mono-color egg), the TV didn't work unless we unplugged and re-connected the TV and cable box power each time we wanted to turn it on (then it went through channel search each time; others had the same experience), there was no facial tissue in the room until the second day and there was no laundry bag.  Whenever our room was made up, the A/C was turned up so we arrived to a warm room.  If it weren't for the fantastic shower . . . .More</t>
   </si>
   <si>
+    <t>texasrepublichistory</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r158759434-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1983,9 @@
     <t>Spent one mid-week night at the Comfort Inn and found it a great choice for Glen Rose visitors. Check-in was fast and easy, since I had called a few days earlier. The grounds are clean and well-maintained, but the hotel is hard to see, as it is located behind a large, empty office building. Good part is that this separates the hotel from the main street and makes it very quiet. The front desk staff was friendly and my room was large and very clean. Even the lobby and halls smelled clean and fresh. My bed was Very comfortable and the room had a nice reading chair &amp; lamp, as well as a good work desk, m/w, frig, coffee maker, etc. Free internet was fast and the TV worked well. Breakfast was standard continental, but I drove down to Debbie's for a big home-style breakfast. It all, a very comfortable, clean, quiet hotel for a good price. Recommended.More</t>
   </si>
   <si>
+    <t>jriley7531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r158479184-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1794,6 +2001,9 @@
     <t>Only spent one night here to attend a funeral in the area,but was well pleased with the motel.  It is back off the main highway which cuts out most of the traffic noise,  Desk staff was very helpful sending us to a good restaurant and giving us directions around the small, very quaint town.  The walls are a little thin, but we were lucky no loud neighbors bothered us.  A very pleasant stay, all things considered.  We would stay again if we are in the area.</t>
   </si>
   <si>
+    <t>tigershark6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r157062050-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1809,6 +2019,9 @@
     <t>Just spend a few nights there. Perfectly ok.  Strong Internet signal, working outdoor jacuzzi, the heat and shower worked, the bed was comfortable, the place was clean, the people nice.  No restaurant and breakfast a little shaky. Thin walls.  Oh well. You can spend a lot more for the same or less</t>
   </si>
   <si>
+    <t>travelalert7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r149188978-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1830,6 +2043,9 @@
     <t>This hotel is clean, new, with a good front desk and the staff is helpful. The rooms are nice.However, they must have skimped on sound-proofing because you can hear every word of a cell phone conversation from the room next door. The person might just as well had been in my room. I also could hear every word of a normal conversation the two people in the room next to me had. And every night, when the person in that room snored, they might as well been sleeping on the couch in my room. If you are on the first or second floor, you can easily hear the people moving around in the room above you.It's a shame about the soundproofing, because the hotel is otherwise a good value.More</t>
   </si>
   <si>
+    <t>JHolemanExpress</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r147729541-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2067,9 @@
     <t>My kids and I stayed at this hotel and I couldn't be happier about our experience.  It's under new management and we could see the employees busily cleaning, checking on us and other guests, and just fussing over all of us like mothers!  I felt like a member of their family.  There was a basketball team one of the nights and we didn't hear a thing.  The exterior grounds are well-maintained and the view is to die for - it's like you're actually IN the landscape.  Also, there are dinosaur foot prints like 30 feet from the back fence!!  The interior and room were spotless and it's evident they really wanted to make this a hotel to remember.  From check-in to breakfast to check-out and the personal suggestions for local attractions, I am thrilled with this hotel.  I actually plan to go back and stay here to see more of the attractions because I was just overwhelmed with the awesomeness of this hotel and its staff.More</t>
   </si>
   <si>
+    <t>shanelimes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r140452691-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1869,6 +2088,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Sharon Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r137206261-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1887,6 +2109,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Joyinliving</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r134644643-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1905,6 +2130,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>ckelly0712</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r134060361-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2151,9 @@
     <t>When i made my reservation I called to make sure we could have an early check in bc we were driving a long distance over night. i was told it was okay, no mention of a fee. when I saw the gps had us arriving about an hour earlier than planned I called again to make sure it would not be a problem to check in when we arrived. But when I got there as the desk clerk [who was clearly very new, I have nothing bad to say about him. he was very nice and apologetic] was checking us in, another girl came in who i was later told is the asst. manager. At first she had a bit of an attitude, telling me it was too early, i couldnt check in for another 3 hours and even then i'd have to pay a fee, and pointed out that the note on the computer was for a different time. I told her it was off by only an hour and that i was told two separate times by two separate people that it was okay for us to have an early check in and no one mentioned a fee. After calling the manager and getting the okay she lost the attitude and was okay. I was later told that the early check in had already been cleared with the manager when I made the reservation, so had that been...When i made my reservation I called to make sure we could have an early check in bc we were driving a long distance over night. i was told it was okay, no mention of a fee. when I saw the gps had us arriving about an hour earlier than planned I called again to make sure it would not be a problem to check in when we arrived. But when I got there as the desk clerk [who was clearly very new, I have nothing bad to say about him. he was very nice and apologetic] was checking us in, another girl came in who i was later told is the asst. manager. At first she had a bit of an attitude, telling me it was too early, i couldnt check in for another 3 hours and even then i'd have to pay a fee, and pointed out that the note on the computer was for a different time. I told her it was off by only an hour and that i was told two separate times by two separate people that it was okay for us to have an early check in and no one mentioned a fee. After calling the manager and getting the okay she lost the attitude and was okay. I was later told that the early check in had already been cleared with the manager when I made the reservation, so had that been notated in the computer the whole thing could have been avoided. The room was nice, the beds comfortable, everything was clean. Dinosaur world and dinosaur river valley state park are very close to the hotel. breakfast was out a bit early and included eggs, sausage gravy, biscuits and other pasteries, 3 types of cereal including fruit loops for the little one and texas shaped waffles in blue berry or regular. only complaint is that the biscuits werent warm so we had to put them in the toaster, and the only yogurt was activia which in my humble opinion is disgusting. There was a large saltwater pool, a kiddie pool and a whirlpool. The kiddie pool had a dead frog and a towel in it, the pool a pair of boxers or shorts. Overall the stay was fine. some things could be improved but for the most part it was a nice hotel.More</t>
   </si>
   <si>
+    <t>JoeyWi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r132472553-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1941,6 +2172,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>MCtravler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r127858551-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1959,6 +2193,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>weesm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r126686749-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1980,6 +2217,9 @@
     <t>Nice place to stay for a short trip to Glen Rose, known for dinosaur tracks.  When we arrived, we were told they found new tracks just behind the hotel and we could go learn more!  The kids were thrilled to meet the paleontologist who explained what tracks the team found (by what dinosaurs) and the history of the dig site, its much better than going to the museum as this is the real thing.  Guess that will be a new attraction to Comfort Inn for now.  Great front desk and GM who gave excellent recommendations to sites and dinning in the area.  Rooms were clean and adequate size for a small family, breakfast was good but it was a little crowded during spring break.  We had a fire alarm at 4 am one night, not sure of the cause, but all the guests gathered at the car park without much fuss.More</t>
   </si>
   <si>
+    <t>TXDavid937</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r118674484-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1998,6 +2238,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Kaniki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r117839274-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2013,6 +2256,9 @@
     <t>Nice and quiet.  Pool is a little small but adequate.  Clean and comfortable.  Has a small refrigerator but no freezer section.  Front desk clerk was very knowledge and helpful.</t>
   </si>
   <si>
+    <t>NP007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r117204404-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2031,6 +2277,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>TexasEunice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r117046718-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2055,6 +2304,9 @@
     <t>Had two little 7 and 8 year old boys with us.  This large suite was great.  Staff was very pleasant.  Complimentary Breakfast was your average hot and cold mix of items.  Hotel was very clean and the beds were comfortable.  Didn't understand the use of 6 little pillows on each bed.  Seemed like alot of laundry.  Pool area was nice and large with three areas.  Whirlpool, baby pool, and larger pool.  Would definitely stay there again.More</t>
   </si>
   <si>
+    <t>DJE20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r116271139-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2079,6 +2331,9 @@
     <t>Very clen, convenient to Dinosaur Valley. Great indoor pool. Good breakfast.More</t>
   </si>
   <si>
+    <t>Texas-Traveler634</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r115288893-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2100,6 +2355,9 @@
     <t>We really didn't expect much from a hotel in a small town, but were very pleasantly surprised at how nice this hotel was!  Beautiful lobby, spacious breakfast area, large room and very comfortable bed!  We had a wonderful stay!More</t>
   </si>
   <si>
+    <t>Rodshar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r113208117-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2118,6 +2376,9 @@
     <t>The bed in our room was wonderful!  The rooms are a nice size and have all the amenities.  I'll definitely stay here again.  I wasn't impressed with the free breakfast, however.   I'm just not a fan of the free cold breakfasts at hotels/motels. With a microwave in the room, I prefer to get my own breakfast treats.More</t>
   </si>
   <si>
+    <t>Abird131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r112087892-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2139,6 +2400,9 @@
     <t>We were staying two nights for our anniversary.  Very clean and nice.  The room and bathroom were spacious.  The pool and hot tub were nice.  The breakfast was ok.  The only complaint we had were the pillows....very small.  If you can remember, bring your own.  We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>TravelingTexasChick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r66685610-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2160,6 +2424,9 @@
     <t>We enjoyed our 1-night stay at Comfort Inn. The rooms were spacious and clean and the beds were comfortable.  The bathrooms were surprisingly nice-it had a stone counter top, curved shower rod, and a hairdryer.  The amenities brought all the comforts of home: cable tv, mini-fridge, desk and chair, wireless internet, work-out room, pool,hot-tub and hot breakfasts. Feels and looks new. I agree with another reviewer who said that the water smelled like sulphur. Still, I would feel comfortable staying here again.More</t>
   </si>
   <si>
+    <t>sdavidsonRoyseCityTx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r65855485-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2178,6 +2445,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>kelliej99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r59610165-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2205,6 +2475,9 @@
     <t>After a recent stay at this hotel the general manager called to inform me that I was being charged $440 for broken box springs in the room.  My son had thrown up on one of the beds and, because I went to the front desk and informed them of the situation, I assume the mattresses were being turned and maybe cleaned and that is when the one broken box spring was discovered.  I say one box spring because, in the pictures that the manager himself sent me, on one of the box springs only the thin fabric that is covering it is torn.  The other has a broken slat in the middle of the bed that I probably slept on without knowing it was broken.  I then received a bill from the manager along with the receipt for the 2 new  Stearns and Foster box springs he purchased at a local furniture store.   From the pictures that were sent, it is obvious the original box springs were of a much lesser quality, not Stearns and Foster.  My other warning is that Choice Hotels International is not willing to do anything about the situation.  They have only said that the hotels are individually owned and refer me back to the general manager/owner that robbed me of the $440 in the first place.More</t>
   </si>
   <si>
+    <t>pumakix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r58671866-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2220,6 +2493,9 @@
     <t>Booked over the phone after searching for a place online. The front desk staff was great, very friendly and efficient. The rooms are good still a new hotel. Be warned they have a high sulphur content so the water is smelly.</t>
   </si>
   <si>
+    <t>ozmaofoz74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r58117476-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2244,6 +2520,9 @@
     <t>We stopped for the night and had a great experience. I was impressed with the price, the motel was quiet, beds were comfortable, and the room was spotless. Check-in staff was young, but very helpful and the price was right. The room was also larger than I expected and the bathroom was much nicer than I expected (with stone countertops).My main issue with any hotel/motel in this part of the country is the smell of cigarette smoke and how clean the floors and carpet are (this seems to signal how clean everything else is!). This hotel did not smell like smoke and the floors in the lobby and carpet in the room were very clean. There is also a pretty good restaurant across the parking lot (a nice steak place and a sports bar that share a kitchen). We're fans of fresh food (as opposed to what just comes off of a Cisco truck) and we liked the meal very much. We'll stay here again the next time we're driving through and need to stop.More</t>
   </si>
   <si>
+    <t>TOG11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r51993210-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2262,6 +2541,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>bc_pa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r32715345-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2280,6 +2562,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>Snail107</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r30393463-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2298,6 +2583,9 @@
     <t>April 2009</t>
   </si>
   <si>
+    <t>forsure</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r17835761-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2319,6 +2607,9 @@
     <t>this was the most enjoyable experience i have had in a good while. the property is very beautiful and the rooms were really big!!. I slept better on there mattress than I did on my own!!the management was very helpful and the front desk staff as well. when making the reservation online i booked the wrong room type. When i requested to change my roomtype upon arrival, it was not available, had already been sold out, so I was upgraded at no extra charge. I WAS THERE ON BUSINESS AND THE FREE WI-FI WAS DEFINATELY A PLUS. bREAKFAST WAS ALWAYS HOT AND DELICIOUS!! BETTER THAN WHAT I EAT AT HOME. I WILL DEFINATELY BE GOING BACK AGAIN. I HAD PREVIOUSLY STAYED AT THE BEST WESTERN AND I DO HAVE TO SAY I ENJOYED MY STAY AT THE COMFORT INN AND SUITES MUCH BETTER, THE AMMENITIES ARE BETTER AND THE STAFF IS MUCH MORE HELPFUL AND FRIENDLY.More</t>
   </si>
   <si>
+    <t>lsws</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r17541699-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2337,6 +2628,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>Kan25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r17486592-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2355,6 +2649,9 @@
     <t>Get this!  Booked room online at their website &amp; when we got there, they had given away our room!  We were not even late!  They were able to get us another room and discounted rate, they said, but looking up the rate online afterward showed a cheaper rate than we were given!  Hotel is new and staff not yet knowledgable on how reservations work, apparently!  THEN, as if it could be anymore ridiculous, after we were told there were no other rooms left in the hotel &amp; they were turning away people all day, my brother called in for a reservation. After a 45 minute discussion and being put on hold many times, the girl gave him a room! How was that possible, I thought.  So, I went downstairs to make sure there was a room and the girl said yes.  NO THERE WAS NOT! When he checked in and paid for the room, someone was already in it! They got him a room elsewhere for free luckily. and gave him a refund.  Worst experience with checkin I've ever had. Hotel is beautiful and new, but staff is ignorant, so beware. Side doors did not work with room keys either.  Boss was out of town, so it could not be dealt with.More</t>
   </si>
   <si>
+    <t>keepinitrealestate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r16908890-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2374,6 +2671,9 @@
   </si>
   <si>
     <t>The property is beautiful on the outside...can't say the same for the people on the inside. I went here on business and they had a handful of construction workers that were playing loud music and drinking beer. I went to complain to the staff and they assured me that they would take care of it. Probably an hour later, the same noise came again. I called the front desk and they told me they have been staying there for a month and were planning to stay longer. They were well-paying customers, therefore, didn't put any more effort to allow others to get a good night of sleep. Had to get a refund and stay at the Americas Best Value Inn across the street. Should've went there the first place...and ended up saving a few bucks too.More</t>
+  </si>
+  <si>
+    <t>J-in-TX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r13665506-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
@@ -2899,43 +3199,47 @@
       <c r="A2" t="n">
         <v>57509</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>17277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2949,50 +3253,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57509</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3006,50 +3314,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57509</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>23382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3067,50 +3379,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57509</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124549</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -3128,50 +3444,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57509</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124550</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3185,50 +3505,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57509</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124551</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3248,50 +3572,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57509</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>124552</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3305,50 +3633,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57509</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>42132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>87</v>
-      </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3368,50 +3700,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57509</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124553</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3429,50 +3765,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57509</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124554</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3490,56 +3830,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57509</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124555</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3559,50 +3903,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57509</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124556</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3614,56 +3962,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57509</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>124557</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3675,56 +4027,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57509</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>14931</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3740,56 +4096,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57509</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>124558</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3801,56 +4161,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57509</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124559</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>154</v>
       </c>
-      <c r="J17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>140</v>
-      </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3866,56 +4230,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57509</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3927,56 +4295,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57509</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124561</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3994,56 +4366,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57509</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>9654</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4061,56 +4437,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57509</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>46935</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4128,56 +4508,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57509</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124562</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4195,56 +4579,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="X22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57509</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4256,56 +4644,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57509</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124563</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4321,56 +4713,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57509</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124564</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4386,56 +4782,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57509</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124565</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4451,56 +4851,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57509</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124566</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4512,56 +4916,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57509</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124567</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4579,56 +4987,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57509</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124568</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4640,56 +5052,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57509</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124569</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4701,56 +5117,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57509</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>57512</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4762,56 +5182,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57509</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124570</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4823,56 +5247,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X32" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Y32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57509</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124571</v>
+      </c>
+      <c r="C33" t="s">
+        <v>315</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4890,56 +5318,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="X33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57509</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124572</v>
+      </c>
+      <c r="C34" t="s">
+        <v>324</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4957,56 +5389,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57509</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124573</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5022,56 +5458,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="X35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57509</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>8208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>344</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5083,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="X36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57509</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>26383</v>
+      </c>
+      <c r="C37" t="s">
+        <v>354</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5150,56 +5594,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="X37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Y37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57509</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>89570</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5215,56 +5663,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57509</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>124574</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5280,56 +5732,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57509</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124575</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5347,56 +5803,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="X40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Y40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57509</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>26575</v>
+      </c>
+      <c r="C41" t="s">
+        <v>391</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="K41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="O41" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5412,56 +5872,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="X41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57509</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124576</v>
+      </c>
+      <c r="C42" t="s">
+        <v>401</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5479,56 +5943,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="X42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="Y42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57509</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>124577</v>
+      </c>
+      <c r="C43" t="s">
+        <v>410</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="J43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="K43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="L43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5546,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="X43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
@@ -5565,37 +6033,37 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5613,56 +6081,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="X44" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="Y44" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57509</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124578</v>
+      </c>
+      <c r="C45" t="s">
+        <v>428</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5674,47 +6146,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="X45" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57509</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124579</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="K46" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5731,56 +6207,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="X46" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="Y46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57509</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C47" t="s">
+        <v>446</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="J47" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5798,56 +6278,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="X47" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="Y47" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57509</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124580</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="L48" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5865,56 +6349,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="X48" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57509</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124581</v>
+      </c>
+      <c r="C49" t="s">
+        <v>466</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="L49" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5930,56 +6418,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="X49" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="Y49" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57509</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124582</v>
+      </c>
+      <c r="C50" t="s">
+        <v>475</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="J50" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="K50" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="L50" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5995,47 +6487,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="X50" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="Y50" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57509</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>124583</v>
+      </c>
+      <c r="C51" t="s">
+        <v>484</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="J51" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="K51" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="L51" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
@@ -6062,47 +6558,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="X51" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="Y51" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57509</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>124584</v>
+      </c>
+      <c r="C52" t="s">
+        <v>493</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -6129,56 +6629,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="X52" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Y52" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57509</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>124585</v>
+      </c>
+      <c r="C53" t="s">
+        <v>502</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="J53" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="K53" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="L53" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6196,56 +6700,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="X53" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="Y53" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57509</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>124586</v>
+      </c>
+      <c r="C54" t="s">
+        <v>512</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="J54" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="K54" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="L54" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6257,47 +6765,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="X54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="Y54" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57509</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>124587</v>
+      </c>
+      <c r="C55" t="s">
+        <v>521</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="J55" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="K55" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="L55" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -6314,56 +6826,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="X55" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="Y55" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57509</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124588</v>
+      </c>
+      <c r="C56" t="s">
+        <v>530</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="J56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K56" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="L56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="O56" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6379,56 +6895,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="X56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="Y56" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57509</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124589</v>
+      </c>
+      <c r="C57" t="s">
+        <v>540</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="J57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="K57" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="L57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6444,56 +6964,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="X57" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="Y57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57509</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>124590</v>
+      </c>
+      <c r="C58" t="s">
+        <v>547</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="J58" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="K58" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="L58" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6511,56 +7035,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="X58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="Y58" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57509</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>124591</v>
+      </c>
+      <c r="C59" t="s">
+        <v>557</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="J59" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="K59" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="L59" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6576,56 +7104,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="X59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="Y59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57509</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>124592</v>
+      </c>
+      <c r="C60" t="s">
+        <v>565</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="J60" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="K60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="L60" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="O60" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6641,56 +7173,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="X60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="Y60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57509</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>574</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="J61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="K61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="L61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6712,47 +7248,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="X61" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="Y61" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57509</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>124593</v>
+      </c>
+      <c r="C62" t="s">
+        <v>584</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="J62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="K62" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="L62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -6779,56 +7319,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="X62" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="Y62" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57509</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124594</v>
+      </c>
+      <c r="C63" t="s">
+        <v>592</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="J63" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="K63" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="L63" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6852,50 +7396,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57509</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124595</v>
+      </c>
+      <c r="C64" t="s">
+        <v>599</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="J64" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="K64" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="L64" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6909,50 +7457,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57509</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124596</v>
+      </c>
+      <c r="C65" t="s">
+        <v>606</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="J65" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="K65" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="L65" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="O65" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6966,50 +7518,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57509</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124597</v>
+      </c>
+      <c r="C66" t="s">
+        <v>613</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="J66" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="K66" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="L66" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="O66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7033,50 +7589,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57509</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124598</v>
+      </c>
+      <c r="C67" t="s">
+        <v>621</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="J67" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="K67" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="L67" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="O67" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7100,50 +7660,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57509</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>35143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>628</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="J68" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="K68" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="L68" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="O68" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7167,50 +7731,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57509</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>124599</v>
+      </c>
+      <c r="C69" t="s">
+        <v>636</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="J69" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="K69" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="L69" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="O69" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7234,50 +7802,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57509</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C70" t="s">
+        <v>643</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="J70" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="K70" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="L70" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="O70" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7301,50 +7873,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57509</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124601</v>
+      </c>
+      <c r="C71" t="s">
+        <v>651</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="J71" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="K71" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="L71" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="O71" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7368,50 +7944,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57509</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>57179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>657</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="J72" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="K72" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="L72" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="O72" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7435,50 +8015,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57509</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>124602</v>
+      </c>
+      <c r="C73" t="s">
+        <v>663</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="J73" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="K73" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="L73" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="O73" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7492,50 +8076,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57509</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>124603</v>
+      </c>
+      <c r="C74" t="s">
+        <v>671</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="J74" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="K74" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="L74" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="O74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7559,50 +8147,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57509</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>124604</v>
+      </c>
+      <c r="C75" t="s">
+        <v>679</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="J75" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="K75" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="L75" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="O75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7626,50 +8218,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57509</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>61458</v>
+      </c>
+      <c r="C76" t="s">
+        <v>686</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="J76" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="K76" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="L76" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="O76" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7693,50 +8289,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57509</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>124605</v>
+      </c>
+      <c r="C77" t="s">
+        <v>693</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="J77" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="K77" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="L77" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="O77" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7760,50 +8360,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57509</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>16642</v>
+      </c>
+      <c r="C78" t="s">
+        <v>700</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="J78" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="K78" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="L78" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="O78" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7827,50 +8431,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57509</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>124606</v>
+      </c>
+      <c r="C79" t="s">
+        <v>707</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="J79" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="K79" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="L79" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="O79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7894,50 +8502,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57509</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>120579</v>
+      </c>
+      <c r="C80" t="s">
+        <v>714</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="J80" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="K80" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="L80" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="O80" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7961,50 +8573,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57509</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>124607</v>
+      </c>
+      <c r="C81" t="s">
+        <v>721</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="J81" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="K81" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="L81" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="O81" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8028,50 +8644,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57509</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>124608</v>
+      </c>
+      <c r="C82" t="s">
+        <v>729</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="J82" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="K82" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="L82" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="O82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8095,50 +8715,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57509</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>124609</v>
+      </c>
+      <c r="C83" t="s">
+        <v>736</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="J83" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="K83" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="L83" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="O83" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8158,50 +8782,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57509</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>124610</v>
+      </c>
+      <c r="C84" t="s">
+        <v>742</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="J84" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="K84" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="L84" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="O84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8221,50 +8849,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57509</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>124611</v>
+      </c>
+      <c r="C85" t="s">
+        <v>749</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="J85" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="K85" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="L85" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="O85" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8282,56 +8914,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="X85" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="Y85" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57509</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>124612</v>
+      </c>
+      <c r="C86" t="s">
+        <v>758</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="J86" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="K86" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="L86" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
       <c r="O86" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8349,56 +8985,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="X86" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="Y86" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57509</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>124613</v>
+      </c>
+      <c r="C87" t="s">
+        <v>767</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
       <c r="J87" t="s">
-        <v>685</v>
+        <v>770</v>
       </c>
       <c r="K87" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="L87" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
       <c r="O87" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8416,56 +9056,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="X87" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="Y87" t="s">
-        <v>689</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57509</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>124614</v>
+      </c>
+      <c r="C88" t="s">
+        <v>775</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>691</v>
+        <v>777</v>
       </c>
       <c r="J88" t="s">
-        <v>692</v>
+        <v>778</v>
       </c>
       <c r="K88" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="L88" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="O88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8483,56 +9127,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="X88" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="Y88" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57509</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>124615</v>
+      </c>
+      <c r="C89" t="s">
+        <v>782</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="J89" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="K89" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="L89" t="s">
-        <v>700</v>
+        <v>787</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
       <c r="O89" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8550,56 +9198,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="X89" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="Y89" t="s">
-        <v>702</v>
+        <v>789</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57509</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>124616</v>
+      </c>
+      <c r="C90" t="s">
+        <v>790</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="J90" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="K90" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="L90" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="O90" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8621,56 +9273,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="X90" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="Y90" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57509</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>124617</v>
+      </c>
+      <c r="C91" t="s">
+        <v>798</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="J91" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="K91" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="L91" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="O91" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8694,50 +9350,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57509</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>124618</v>
+      </c>
+      <c r="C92" t="s">
+        <v>805</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="J92" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="K92" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="L92" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="O92" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8753,56 +9413,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="X92" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="Y92" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57509</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>124619</v>
+      </c>
+      <c r="C93" t="s">
+        <v>815</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
       <c r="J93" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="K93" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="L93" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="O93" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8826,50 +9490,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57509</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>124620</v>
+      </c>
+      <c r="C94" t="s">
+        <v>821</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>730</v>
+        <v>822</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>731</v>
+        <v>823</v>
       </c>
       <c r="J94" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="K94" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
       <c r="L94" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="O94" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8891,56 +9559,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>735</v>
+        <v>827</v>
       </c>
       <c r="X94" t="s">
-        <v>736</v>
+        <v>828</v>
       </c>
       <c r="Y94" t="s">
-        <v>737</v>
+        <v>829</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57509</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>16545</v>
+      </c>
+      <c r="C95" t="s">
+        <v>830</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>738</v>
+        <v>831</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>739</v>
+        <v>832</v>
       </c>
       <c r="J95" t="s">
-        <v>740</v>
+        <v>833</v>
       </c>
       <c r="K95" t="s">
-        <v>741</v>
+        <v>834</v>
       </c>
       <c r="L95" t="s">
-        <v>742</v>
+        <v>835</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>743</v>
+        <v>836</v>
       </c>
       <c r="O95" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8964,50 +9636,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>742</v>
+        <v>835</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>57509</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>124621</v>
+      </c>
+      <c r="C96" t="s">
+        <v>837</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
       <c r="J96" t="s">
-        <v>746</v>
+        <v>840</v>
       </c>
       <c r="K96" t="s">
-        <v>747</v>
+        <v>841</v>
       </c>
       <c r="L96" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="O96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9031,50 +9707,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>57509</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>124622</v>
+      </c>
+      <c r="C97" t="s">
+        <v>844</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="J97" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
       <c r="K97" t="s">
-        <v>753</v>
+        <v>848</v>
       </c>
       <c r="L97" t="s">
-        <v>754</v>
+        <v>849</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="O97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9098,50 +9778,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>754</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>57509</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>124623</v>
+      </c>
+      <c r="C98" t="s">
+        <v>851</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>756</v>
+        <v>852</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="J98" t="s">
-        <v>758</v>
+        <v>854</v>
       </c>
       <c r="K98" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
       <c r="L98" t="s">
-        <v>760</v>
+        <v>856</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>761</v>
+        <v>857</v>
       </c>
       <c r="O98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9165,50 +9849,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>762</v>
+        <v>858</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>57509</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>124624</v>
+      </c>
+      <c r="C99" t="s">
+        <v>859</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>764</v>
+        <v>861</v>
       </c>
       <c r="J99" t="s">
-        <v>765</v>
+        <v>862</v>
       </c>
       <c r="K99" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="L99" t="s">
-        <v>767</v>
+        <v>864</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>768</v>
+        <v>865</v>
       </c>
       <c r="O99" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9232,50 +9920,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>767</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>57509</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>124625</v>
+      </c>
+      <c r="C100" t="s">
+        <v>866</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="J100" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="K100" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
       <c r="L100" t="s">
-        <v>773</v>
+        <v>871</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>768</v>
+        <v>865</v>
       </c>
       <c r="O100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -9299,50 +9991,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>774</v>
+        <v>872</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>57509</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>124626</v>
+      </c>
+      <c r="C101" t="s">
+        <v>873</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>775</v>
+        <v>874</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>776</v>
+        <v>875</v>
       </c>
       <c r="J101" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="K101" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="L101" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>780</v>
+        <v>879</v>
       </c>
       <c r="O101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9366,50 +10062,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>781</v>
+        <v>880</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>57509</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>124627</v>
+      </c>
+      <c r="C102" t="s">
+        <v>881</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="J102" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
       <c r="K102" t="s">
-        <v>785</v>
+        <v>885</v>
       </c>
       <c r="L102" t="s">
-        <v>786</v>
+        <v>886</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>787</v>
+        <v>887</v>
       </c>
       <c r="O102" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9433,7 +10133,7 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>788</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_76.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_76.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="789">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Andithenana</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r545997165-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
@@ -180,9 +177,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Karen D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r540453499-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
   </si>
   <si>
     <t>GOOD:  Comfortable pillows and bedBAD:  From the front desk guy (a young man who never took off his headphones) who made excuses about the outside doors that wouldn't open with our room keys and slow computers by telling us the owners of the were cheap and "very mean" and "wouldn't fix stuff" to the dirty bathroom and microwave, desk chair held together with black duct tape (seriously!), and coffee stains running down the white walls in the room, they get a D- for cleanliness and upkeep. The outdoor chairs had bottoms that had partially rotted out and wouldn't be safe to sit in.RECOMMEND: Stay at the Holiday Inn down the road.More</t>
-  </si>
-  <si>
-    <t>Jim H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r532189980-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
@@ -239,9 +230,6 @@
 Breakfast was included in the...My wife and I spent the weekend in Glen Rose for our 20th Anniversary getaway. We went to the Promise Friday night (which was awesome- see my other review). We stayed the night so we could go to Fossil Rim the next morning (followed by lunch at the Loco Coyote). The location was perfect- very near The Promise. The lobby of the hotel was clean, but around 85 degrees- much too hot to be comfortable (this was the first week of October- it was cooler outside than it was in the lobby). They put us in a room with a king bed and a jacuzzi tub where another bed would normally be- that was a little odd, but OK. The room was clean and the A/C worked well (much to my wife's dismay since she is always cold!). Wife used the large jacuzzi tub and enjoyed it.Getting the shower to work was tricky- and we ended up calling the front desk to ask how to get the water diverted to the shower (it turns out, you have to pull down the little ring around where the water comes out of the faucet- something we had never experienced).Since our room was at the end of the hall on the first floor, it would've been great to use the door at the end of the hall to load/unload. But the exterior card reader wasn't working!Breakfast was included in the price- but what a disaster. There were lots of people waiting in line for 1 waffle maker. They ran out of eggs and milk. When they finally brought more eggs (scrambled omelet type things), they were hard and I had to cut off a 1/3rd of it to eat the rest. The orange juice was more like orange water- nasty. And the temperature in the lobby where breakfast was served still soared around 85 degrees. There wasn't enough seating. It would've been better to go eat at Sonic across the street!Overall, it was a mediocre experience from a mediocre hotel. The staff was nice and accommodating, but it was just OK. And it wasn't all that cheap- I paid around $125+ for a Friday night.More</t>
   </si>
   <si>
-    <t>holliepatrick4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r496551024-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -263,9 +251,6 @@
     <t>Stayed for one night on Saturday, June 24, 2017.  Air conditioner was broken in the lobby/breakfast area.  it had rained, not flooded and the carpet was soaked all along the back of the breakfast area.  Towels were laying all over the floor and did not cover the wet areas completly.  There were no signs warning to stay away because there were exposed outlets along that wall where it was soaked.  The employees were very nice as they were sweating (actually showing through their clothes and on their faces).  They tried to cover well for the upper management but we did find out that the air had been out for many days.  It was 93 degrees outside that day in Texas.  The underneath of the chairs in the dining room were falling apart, the bottoms hanging down and stains all over them.  It was disgusting,  The pool and hot tub were a whole other awful situation.  it had algae everywhere which we noticed as we walked out to get into it.  It was not something that happened overnight.  I always stay at comfort Suites and this was an embarrassment to their name.  This hotel needs to be investigated.More</t>
   </si>
   <si>
-    <t>kmaddy2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r496358963-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -287,9 +272,6 @@
     <t>Good- breakfast, bed, pillow, shower, pool (2nd day) 1st day was green.Bad - Jennifer,  worst customer service person ever met. She scruggs her shoulders, talks over you instead of listening to you, acts as if I 'm bothering her. Doesn't look at you when talking (Asperger?).  She needs to get in another field. Unfortunately, the other two people, I forgot their names, one older woman and a cheerful young man, they were great in greeting guests. Manager (or owner) needs to walk the grounds. In the 3 short days I stayed, I noticed things that needs to be fixed. Lobby floor ladie's restroom should pop unlock as you exit leaving it unlocked for the next guest. The front desk clerk should not have to ask the guest to remember to unlock it as you leave!  One of the lights on 3rd floor is crooked. In Room 303 the caulking in the nice shower is non existing and the door needs a door stop so it doesn't slam against the wall.  On the 2nd floor stairs, the 1st step has a deeper step catching you by surprise.More</t>
   </si>
   <si>
-    <t>taxonvacation</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r489927336-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -308,9 +290,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Jen_in_Co</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r489081234-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -326,9 +305,6 @@
     <t>Hotel is nice, room was clean (except the water spots on the bathroom mirror), breakfast area was well maintained, staff was friendly (especially the young man taking care of the breakfast area on the weekends). The pool and 2 (!) Hot tubs were very clean and refreshing on a hot Tx afternoon. Bed was a tad hard but that's personal preference. Overall, enjoyable stay.</t>
   </si>
   <si>
-    <t>jim m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r489075689-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -341,9 +317,6 @@
     <t>Hotel is safe and clean, grounds could use some landscaping but are well maintained, Staff was helpful and kind, Breakfast was very good with a large variety to choose from and was kept well stocked by the young man that greets guest and makes sure they get what they need. A very nice experience and very Relaxing place to stay. I would recommend this Hotel to anyone looking for a quiet relaxing stay.</t>
   </si>
   <si>
-    <t>gerialexander</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r483402933-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -362,9 +335,6 @@
     <t>We really enjoyed the Comfort Inn and Suites in Glen Rose.  The staff was very friendly, the free breakfast was great, and the room was nice and big.  They have a full breakfast, and the girl who was working it made sure things never ran out and was always asking if we needed anything else!  The pool area was nice.  There was a hot tub and a very small little pool for toddlers and babies to sit in.  It was actually a really pretty view and made you feel like you were somewhere else as there is a very large rock wall right next to the swimming pool.  Not a lot of lawn chairs, so in busy season, you may want to get down there early.  I would have given the place five stars easy, but the walls were very thin.  Unfortunately, we had a couple who were having some activities next door that I would have preferred my 4 year old not hear and question.  We could also clearly hear their conversation through the walls when they were talking in normal tones.  Had there not been anyone right next to us, I wouldn't have known the difference.  Alas, there was, and it resulted in an early exit from the room.  Otherwise, I'd highly recommend this property if you are visiting Glen Rose!More</t>
   </si>
   <si>
-    <t>cutbait</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r460238322-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -392,9 +362,6 @@
     <t>Called around town as I have been in this area before . Gave me a better rate by calling and not booking online . May be the time of the year , and also during the week . But not but a few people staying here . Noticed not many at other hotels either . The rooms are very clean , and large . They do have the usual breakfast .  I would stay again .More</t>
   </si>
   <si>
-    <t>Audrey V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r457569834-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -413,9 +380,6 @@
     <t>This was a very nice hotel.  I can honestly say it was one of the cleanest hotels that I've stayed in.  The beds were comfortable, the bathroom was great, and breakfast was decent.  There were plenty of options, and my kids loved the huge Texas shaped waffles. The juices were a little watered down, but overall it was very good.  My one and only complaint is the call from the front desk that woke my family (including my two young kids) up around 10:00 pm.  There was a noise complaint from another guest, and I guess since I had kids with me, they assumed it was coming from our room, which was completely inaccurate. My kids were in bed at 8:00 pm and my husband and I were asleep by 9:00 pm. We then got another call at 11:30, which I assume was from the person who was complaining about the noise. He or she didn't bother to say anything  when I answered, they just sat there while I said "Hello? Hello?" Then they hung up the phone.  So now my family was woken up twice in one night, and I was unable to get back to sleep for several hours after that. I hate when people are jerks, and I hate when I or my kids get blamed for something that we had nothing to do with.  Needless to say our sleepless night made for a rough drive back...This was a very nice hotel.  I can honestly say it was one of the cleanest hotels that I've stayed in.  The beds were comfortable, the bathroom was great, and breakfast was decent.  There were plenty of options, and my kids loved the huge Texas shaped waffles. The juices were a little watered down, but overall it was very good.  My one and only complaint is the call from the front desk that woke my family (including my two young kids) up around 10:00 pm.  There was a noise complaint from another guest, and I guess since I had kids with me, they assumed it was coming from our room, which was completely inaccurate. My kids were in bed at 8:00 pm and my husband and I were asleep by 9:00 pm. We then got another call at 11:30, which I assume was from the person who was complaining about the noise. He or she didn't bother to say anything  when I answered, they just sat there while I said "Hello? Hello?" Then they hung up the phone.  So now my family was woken up twice in one night, and I was unable to get back to sleep for several hours after that. I hate when people are jerks, and I hate when I or my kids get blamed for something that we had nothing to do with.  Needless to say our sleepless night made for a rough drive back to Houston on Sunday, but we made it.More</t>
   </si>
   <si>
-    <t>vvbell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r445979283-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -443,9 +407,6 @@
     <t>The lady at the front desk was fast and helpful. The hotel was clean and in decent shape. The room was clean, and the beds were very comfortable with 4 pillows each.  It was quiet, but they were not very busy. The bathroom was clean, and the water pressure was ok. For the price, I was very satisfied. I would stay here again. More</t>
   </si>
   <si>
-    <t>1CRH</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r444908510-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -470,9 +431,6 @@
     <t>We really enjoyed our stay. The room was very clean. The bed and pillows were comfortable. The staff (Lisa is the only name I got) were very nice and helpful. Breakfast was good, and fresh, and had plenty of choices. A little more water pressure from the shower head would be nice.More</t>
   </si>
   <si>
-    <t>Jason B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r433702008-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -503,9 +461,6 @@
     <t>The room was nice but the water pressure was so low that it took over an half hour to fill the bathtub up because shower was out of question with the little trickle of water that came out.... I told the front desk and the lady said, there was nothing they could do.  Will never stay there again!More</t>
   </si>
   <si>
-    <t>redrealtor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r431376040-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -530,9 +485,6 @@
     <t>After driving a few hours from south Texas, we decided to stop in Glen Rose. My go to smaller hotels were all booked so we stopped in here! Way less expensive than others in town and it was really nice! I was very pleased with the large bedroom and bath. The bed was really comfortable and room came with mini frig, microwave and coffee maker. Location is up from the highway so room was very quiet. Morning breakfast was free and it served its purpose. I'll definitely stay here again on my next stop in Glen Rose. More</t>
   </si>
   <si>
-    <t>toballou</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r429296365-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -557,9 +509,6 @@
     <t>We stayed here a few weeks back, and we a great experience at this hotel.  There were 4 of us in 2 rooms, and both of them were lovely rooms.  The staff greeted us as if it was mid day, even though it is actually more like 1 AM.Breakfast was good, and served hot.Rooms were relatively quiet considering the hotel was rather full, and lots of kids were there.More</t>
   </si>
   <si>
-    <t>scott l</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r427122738-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -584,9 +533,6 @@
     <t>Very clean, great front desk, very nice breakfast, will go back. Breakfast includes eggs, sausage, waffles, fruits, cereals, yogurt. Visited Fossil Rim Park and Dinosaur State Park.   Tons of activities in the area. More</t>
   </si>
   <si>
-    <t>MariannLitz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r425689090-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -614,9 +560,6 @@
     <t>We were there for a ultra bike race. The staff was so courteous and kind as we were coming at all hours to sleep and freshen up. Coffee and icy cold lemon water was available 24/7. It was quite hot (in the 90s), the icy cold water was welcome relief.More</t>
   </si>
   <si>
-    <t>Dennis P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r415756474-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -641,9 +584,6 @@
     <t>The room exceeded my expectations. It was large, clean, and comfortable. Every staff member I encountered was both polite and informative. The pool area is just as is pictured. Breakfast items were fresh. I observed hotel staff constantly attending to food items and cleaning the breakfast area during breakfast. On the downside, the television in the room did not work. In addition, the temperature of the lobby and the breakfast area seemed a bit warm.More</t>
   </si>
   <si>
-    <t>Colleen B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r415350985-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -668,9 +608,6 @@
     <t>I read some mixed reviews on this hotel but it was excellent!!  The rooms were very clean as well as the lobby.  The breakfasts were very good an continually refilled with lots of options.  All the staff smiled and greeted us at every turn.  The rooms had all the amenities that one would expect.  The manager ever went to the extent of showing our grandchildren the dinosaur fossils and artifacts in the lobby, taking them out of the displays and explaining each to them.  The pool is perfect!!!!! Previous comments were made regarding the incomplete pool.  There are 3 in good working order.  Lots of good restaurants nearby like the Big Cup and lots to do in Glen Rose. There were 3 or 4 activities in town while we were there.More</t>
   </si>
   <si>
-    <t>taffien</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r393962786-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -698,9 +635,6 @@
     <t>Walking in, the lobby was attractive but oh so warm!  Texas summers demand AC and I was concerned.  Rachel greeted us at the counter and took excellent care of us.  She reassured me the rooms were very cool, and they were.  The lobby &amp; hallways and breakfast room were warm and that kept me from giving them the fifth star rating.  The rooms were well equipped, very cool and the beds were just fantastic!  I was a grandmother traveling with 2 6-year olds &amp; 2 11 year olds so got a room with 2 king beds.  It was perfect.  Two of the three pools were operational and clean.  The breakfast bar was really well equipped with sausage, eggs, waffles, juices, coffee, etc.  That was a life saver for us in a small town with few dining choices.  We were on the 3rd floor and had zero noise from outside.  Many TV channels to choose from, soft towels - just a few extra bonus points for those as well.  We would definitely stay there again.  Rachel made it all work for us and she is a true asset for the facility.More</t>
   </si>
   <si>
-    <t>Jennifer M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r388262079-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -728,9 +662,6 @@
     <t>The only reason I am giving 4 Stars is because the pool and kids pool and hot tub. The pool needed to have the bugs cleaned out but we just swam on one side. The other two were unfortunately out of order. They even have a grill if you wanted to grill out. The rooms have a refrigerator and microwave. Very clean. The staff was very kind and accommodating and the maid service was impeccable. A delicious hot breakfast and will definitely stay again. More</t>
   </si>
   <si>
-    <t>471francesca</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r386273623-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -758,9 +689,6 @@
     <t>There's isn't anything negative i can say about this experience. The beds were awesome and those pillows (I wanted to take one home!) just cradled your head.  The staff was very friendly and efficient.  Great recommendation for a local watering hole, breakfast staff was friendly and courteous, clean . . . . yada, yada, yada . . . will visit Comfort Inns again!More</t>
   </si>
   <si>
-    <t>Lppmyst</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r382573180-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -785,9 +713,6 @@
     <t>We arrived on June 3rd right after the flooding in Texas and were informed the pool and first floor had some flood issues, but the breakfast area still had great coffee and waffles.  The entire staff was very courteous and provided us with the extra pillows we needed.  The location is close to a few places to eat, and a gas station selling fried pies.  Fossil Rim Wildlife center was a blast.More</t>
   </si>
   <si>
-    <t>77cliffy77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r378343795-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -815,9 +740,6 @@
     <t>We stayed for 3 nights during the week while on vacation.  We were there the week before Memorial Day Weekend.  All the staff were courteous &amp; friendly &amp; very helpful.  Our room was clean &amp; very spacious.  The beds were comfortable.  I love the closet &amp; the refrigerator/microwave/coffee maker setup.  It's very neat.  They were also generous with towels.  We always had plenty which is great after spending part of the day at/in the river &amp; coming back to clean up before going back out.  The pool was out because of being struck by lightning, but the river was perfect at the time &amp; we probably had more fun there than at the pool anyway!  We hope to be able to make it back next year for vacation!More</t>
   </si>
   <si>
-    <t>polite</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r377441161-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -842,9 +764,6 @@
     <t>We booked on Priceline because it's last minute and everything we found was full except through Priceline. We are traveling with our 2year old so we need a king bed. We were denied because we booked on Priceline! Had we booked through Comfort Inn directly if would have been no problem. There is no latch lock on the door for Saftey. The hot tub is brownish green and the pool is 1/4 full. I read a post from a couple weeks ago and the same complaints were stated then. Apparently they were waiting on a pool pump. I guess pool pumps take several weeks by mail?? So disappointed so far. The room is nice and updated but now my husband will have to sleep I a separate bed because the one they have us has two fills! Boo! Oh well. More</t>
   </si>
   <si>
-    <t>dawnbT7548OO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r374288394-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -869,9 +788,6 @@
     <t>Exceptional Experience.  Staff is friendly, professional and very helpful. Needed to change a reservation, Sissy at Front Desk did exactly as I requested. Both rooms top notch.  Housekeeping staff friendly and helpful.  HIGHLY recommend this hotel.More</t>
   </si>
   <si>
-    <t>C r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r372001255-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -894,9 +810,6 @@
   </si>
   <si>
     <t>Stayed in Glen Rose while visiting family. Pros: The place was clean and the staff was super friendly. Michelle, at the front desk, was especially pleasant and helpful. Cons: the pool was dirty and the outdoor hot tub green and slimy. I would stay there again, hopefully maintenance will step it up and clean up the pool area. More</t>
-  </si>
-  <si>
-    <t>Cm1515</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r370123350-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
@@ -924,9 +837,6 @@
 The refrigerator was not working in our room.  I called the front desk and was told to please "give me a few minutes to see if I have a replacement" or something similar.  They never got back to me so I had to put ice in the refrigerator to keep items cold. The ice machine on the second floor was not working and empty. I had to go to another floor to get ice. When I tried to use the coffee machine in the room, someone else's used coffee "pod" was still in the machine so it obviously had never been checked or cleaned.  The roll-away bed mattress was a ridiculously uncomfortable thick plastic squeaky mattress clearly meant for non-toilet-trained toddlers rather than adults. No one above toddler age could ever use it and actually sleep. The pull-out couch mattress was so thin it was like laying on bare...I will preface my review by saying the front desk staff was very friendly and the bed was very comfortable.  However, there were so many "little" things that were unpleasant during our stay that it really affected our overall experience negatively.  A few examples: Key entry didn't work at rear entrance.  I was told by staff the battery was probably running low, but this caused us to have to haul all of our personal luggage around the side of the hotel, as we had already unloaded it at the back entrance.The refrigerator was not working in our room.  I called the front desk and was told to please "give me a few minutes to see if I have a replacement" or something similar.  They never got back to me so I had to put ice in the refrigerator to keep items cold. The ice machine on the second floor was not working and empty. I had to go to another floor to get ice. When I tried to use the coffee machine in the room, someone else's used coffee "pod" was still in the machine so it obviously had never been checked or cleaned.  The roll-away bed mattress was a ridiculously uncomfortable thick plastic squeaky mattress clearly meant for non-toilet-trained toddlers rather than adults. No one above toddler age could ever use it and actually sleep. The pull-out couch mattress was so thin it was like laying on bare coils. The fresh fruit at breakfast ran out early. With all of that said, this is a centrally-located convenient hotel with friendly staff, comfortable beds, and a decent breakfast.  I think that the hotel could fix many of these problems very easily and make future guests' stays much more pleasant.More</t>
   </si>
   <si>
-    <t>Katy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r356800198-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -954,9 +864,6 @@
     <t>The room was very clean- but there were some flaws- The fence in the parking lot was broken and falling over, there was visible water damage by the ac unit in our room,  and the pools were dirty and discolored. However,  we did enjoy the stay- fluffy pillows,  comfortable  bed,  nice view of the creek/cliff. More</t>
   </si>
   <si>
-    <t>Madembrisky</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r356524732-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -975,9 +882,6 @@
     <t>This is a typical Comfort Inn, the rooms were clean, the staff was nice and we enjoyed our breakfast.  I was affordable, and not too far from all the  attractions- we loved Dinosaur World, and the Wildlife park, I would recommend anyone to stay here! More</t>
   </si>
   <si>
-    <t>candjlindsey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r354873815-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1002,9 +906,6 @@
     <t>The hotel was very well kept and our room was great. The staff was very nice, especially Michelle and Sissy. They were very nice and took the time to show my daughter and son some of the "fossils" they have on display (Glen Rose is known as the "dinosaur capital of Texas"). It was a birthday trip for my daughter, and she had the best time. Free breakfast is included as well as a workout room, business center, laundry facility, outdoor pool, and hot tub. The hotel was not busy at all and most days we had the breakfast area to ourselves. The pool was open but it was too cold still for swimming, but the kids did enjoy the hot tub. We did have a lot of rain during our stay which caused a leak around the ac/heater unit. We did have free WiFi, but it was very difficult getting a good reception. Our cell phone service was not great either, but it was not just in the hotel. I guess Sprint service is not popular in the area. Overall I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>TYLERJOE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r339795721-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1032,9 +933,6 @@
     <t>I think this property is fairly new, and it is well maintained.  The rooms are clean and there is no odor, which is great, no musty smell or mold.  We were on the second floor and the ice machine was broke, so that was a negative.  And the ice machine on the first floor was strange, never seen this before, just open this big door and here is all this ice?  And a scoop on top to fill your container. That to me was not very sanitary, so I did not get any ice.  Instead of the hotels that have ice come out of a big machine with a dispenser.  The breakfast was very limited, very few choices, so that was disappointing.  And the other comment I could make is that the employees stand right outside in front smoking, which is not good.  Would I stay here again, yes, because the rooms are clean and the staff is super nice.More</t>
   </si>
   <si>
-    <t>TexasLadies</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r327417703-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1062,9 +960,6 @@
     <t>In September 2015, we went as a group of 60 from Tomball, Tx to Glen Rose to attend The Promise play.  The hotel manager worked with me for 3 months to make this happen. Once we got there, he and his staff went above and beyond to accommodate all of us.  They also gave us a great rate and the rooms were clean and very nice. They made each and everyone of us feel like royalty and made us feel so welcome.  We were allowed to use their kitchen area for our "after party and helped me unload and store munchies close so it would be more convenient.  They offered us the use of their serving dishes and the night staff even helped us clean up afterwards!  Since it was after midnight when we finished cleaning up, they offered (without me even asking) to give me a late check-out.  They even stored the leftovers downstairs so I wouldn't have to take everything upstairs to my room and then back downstairs to load up again.  The staff was always checking with everyone to see if there was anything anyone needed.  We look forward to our next group trip in September 2016.  Wouldn't think of staying anywhere else.More</t>
   </si>
   <si>
-    <t>Laurie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r324666347-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1092,9 +987,6 @@
     <t>We have been thinking about movie to the Glen Rose are and decided to come stay for a couple of days to explore the town.  We were great by Michelle when we checked in and she treated us like royalty. She was very informative about the town and where we should eat abound visit.  Our room was spotless and extremely comfortable. The hot breakfast was good with many choices.  We will definetly stay here again and highly recommend it. More</t>
   </si>
   <si>
-    <t>Jaime L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r323984105-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1122,9 +1014,6 @@
     <t>Stayed here for Spartan Race weekend. The hotel went out of the way to welcome use.  They had breakfast ready for everyone running. They had waivers printed so you did not have to wait at the venue to fill them out.  No rude signs about mud or dirt.  As a hotel, the breakfast was good. Basic hot and cold options. They say continental, but there were biscuits, eggs, and sausage.Rooms were a good size and clean.  WiFi was not the best. Little slow.More</t>
   </si>
   <si>
-    <t>Ralph T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r319958610-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1149,9 +1038,6 @@
     <t>We normally wouldn't do a Comfort Inn but we took a chance and we were super surprised with the quality of the room.  Very clean and the bed was comfortable.  Only recommendation would be that they put bigger TV's in the rooms.More</t>
   </si>
   <si>
-    <t>Rona1959</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r316344737-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1176,9 +1062,6 @@
     <t>I loved the comfortable bed and pillows.  The breakfast was good both mornings and items were replaced frequently.  The staff was very friendly and they put us in a room away from the working crowd that stays there.More</t>
   </si>
   <si>
-    <t>ducksoup1959</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r308201544-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1203,9 +1086,6 @@
     <t>We arrived around noon on a Fri., had no problem checking in.  Staff was friendly and courteous.  The room was nice, clean and comfortable.  Only thing that would have made it better would be to have more water pressure in the shower.  Breakfast was only fair which is the reason for 4 stars rather than 5.  Biscuits were never really hot and could have used gravy.  We didn't use the pool or hot tub so can't comment on that.  We would stay again.More</t>
   </si>
   <si>
-    <t>Melinda S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r306539005-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1233,9 +1113,6 @@
     <t>Took the grands for some sightseeing and hiking.  Hotel services were excellent.  Hotel was a bit run down.  Looked like there was water damage, peeling wallpaper, etc.  One of the reasons we stayed there was because of the pool.   It was awful.  Kiddies pool was green, hot tub was cold, regular pool was full of ants.More</t>
   </si>
   <si>
-    <t>Amr H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r300300108-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1260,9 +1137,6 @@
     <t>My wife and our 3 year old daughter loved the place. We didn't spend much time in our room but it was pretty standard and very clean. The staff was very helpful and told us all about the town. My one complaint would be the breakfast was limited and not very yummy. The eggs and biscuits were very much box/mix made and didn't give any illusion of freshness or yumminess. It was fine though, we all had a filling breakfast and were on our way. Would definitely stay again if we visit!More</t>
   </si>
   <si>
-    <t>jusbFtWorth</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r283750617-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1314,9 +1188,6 @@
     <t>We enjoyed the comfortable, well dressed beds.  Our room was very clean and quite.  The pool is outside but we didn't use it. We had no problems with our room.  The downside was the below average breakfast. The variety during our 3 day stay was awful.  There were  a couple of apples in the fruit bowl the first day and just 3 sad looking oranges the last day.  The pastries look old and dried out. The hot food was the same processed egg  and sausage patties all three days.  The coffee and juice were weak tasting.  This is just not the breakfast that we expect from this chain or for an almost $100/night room. Also for some reason the workout room was closed.  My teenaged grandson wanted to use it.More</t>
   </si>
   <si>
-    <t>Jewleswoo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r278475121-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1341,9 +1212,6 @@
     <t>We chose this hotel to bring our Girl Scout troop of 30+ girls and parents for their price, but between their friendliness w this many kids running around their hotel, and the GM taking the girls on a guided tour of the creek bed outback to view the dinosaur tracks, makes us glad we chose it. Definitely will recommend to all, and we will use when come back with the family.More</t>
   </si>
   <si>
-    <t>Van V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r271105432-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1368,9 +1236,6 @@
     <t>Stayed here for the annual dulcimer festival. There were five of us: two adults and three teens.  This is either a new hotel or recently remodeled.  The suite was very large and we had plenty of room. The staff were all very friendly and were quick to help.  The only issue we had was the mattress on the sofa bed was very thin and sagged horribly.  I'd bring an air mattress next time.More</t>
   </si>
   <si>
-    <t>Dana M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r265316474-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1398,9 +1263,6 @@
     <t>We will absolutely stay in this hotel again!!  Excellent, very clean room. Wonderful,  friendly, helpful staff. It was easy to miss due to the huge empty nightclub in front of it, but don't give up the search.  This is the place to stay when visiting Glen Rose!More</t>
   </si>
   <si>
-    <t>Lindarene</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r263276636-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1428,9 +1290,6 @@
     <t>There were just a few choices of chain hotels in Glen Rose and this looked like one of the newest. Overall it was a very pleasant stay. The hotel itself is behind another building so it's a little confusing to find. Check in was quick and the room was fine. I did hear more guest noise than I have at other hotels. I could easily hear the fact that there was a family next door but they weren't rowdy so it was fine. I also noticed that the bathroom sink didn't look like it had been wiped down which makes me wonder how clean the rest of the room actually was. Check out was also easy and all the staff I encountered were quite friendly and helpful. Overall, a good place for a night or two.More</t>
   </si>
   <si>
-    <t>slyefocks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r262546288-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1455,9 +1314,6 @@
     <t>We stayed here to see the the dinosaur tracks - price is good, comfort level was excellent, spacious and the service was great. We will definitely make this hotel our "home away from home" when we visit. Thanks.More</t>
   </si>
   <si>
-    <t>texi l</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r259618546-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1482,9 +1338,6 @@
     <t>When we checked in, the staff were polite and friendly. Our room was the usual choice style, nothing dirty. I was quite surprised as a lightbulb in the bathroom was not working. We called the front desk and the lady said "I'll see what I can do" but it did not get fixed! We went down to the fitness center and discovered that some of the machines were broken, not a significant problem to me. As for the breakfast, the waffle fill line cups were incorrect, the batter overflowed from the sides of the waffle maker. Also, there was no fruit except for yogurt and the eggs were patty style, the kind you buy frozen at the store. There is a Brookshires Supermarket about a mile west. The hotel is in the same area as a chicken express and another building directly in front of it. We didn't bring our swimming gear because we didn't think it was warm enough. It is in close proximity to Fossil Rim, Dinosaur Valley State Park, and Dinosaur World. When we checked out, just a few hours ago, it was quick and efficent. Overall, it is a great place to relax after a day of sightseeing. I would probably stay there again.More</t>
   </si>
   <si>
-    <t>Mak1986</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r252834628-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1509,9 +1362,6 @@
     <t>Bed was super comfy. Hotel was quiet and didn't here hwy noise as it sits a bit back from road a bit. Breakfast was simply ok. Not in walking distance to downtown, but glen rose is small so easy to drive the 2 mins to downtown and park.More</t>
   </si>
   <si>
-    <t>montanaglobetrotter</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r250807354-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1536,9 +1386,6 @@
     <t>The rooms were uniform, but the staff was excellent and friendly. From the morning shift to the late night shift. The pool was beautiful, with a rock face back drop, it was a perfect end to a night of southern fun! Thanks for such a great stay!More</t>
   </si>
   <si>
-    <t>MTJJEWT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r237813777-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1566,9 +1413,6 @@
     <t>We stayed one night and enjoyed our stay. Check in was quick and easy. Staff were nice and helpful. The room was nice and clean and the bed very comfortable. There was no noise at night and the breakfast was really good.More</t>
   </si>
   <si>
-    <t>GregE330</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r237486917-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1593,9 +1437,6 @@
     <t>Wonderful stay for the Spartan.  Great service, Pam the assistant manager (and the rest of the staff) went out of their way to make us feel like family and take care of us.  Rooms had really high ceilings, very roomy, super clean, and beds really comfortable.  This will be my number one if we ever make it back to Glen Rose.  More</t>
   </si>
   <si>
-    <t>noplacetogo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r232584850-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1620,9 +1461,6 @@
     <t>We had a nice one night stay here. The desk help was very helpful and friendly. Our room was clean and neat. Breakfast was sufficient, not as much as some other hotels. The walls are a little thing based upon the noise we could here from next door. Luckily they must have gone to sleep around the time we did. Complete facility seemed to be well maintained. Even with a sign on the highway, the hotel is easy to miss seeing. We would stay here again.More</t>
   </si>
   <si>
-    <t>Txluv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r230378184-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1650,9 +1488,6 @@
     <t>Friendly staff, comfortable bed, and everything throughout was clean.  Stayed alone in a spacious room.  The hotel was very busy, but managed very nicely with convenient, good lighted parking.  A short drive to the Dinosaur State Park, Fossil Rim Wildlife Preserve, and quaint downtown.  The pie shop on the square is heavenly!More</t>
   </si>
   <si>
-    <t>SuziQinTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r229313129-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1671,9 +1506,6 @@
     <t>I normally stay at the Holiday Inn in Glen Rose (several trips a year to this town) but got a good deal on a King Suite through Priceline.  The room was clean and big!  Breakfast was below average, even for the "free" hotel breakfasts that I don't usually care for to begin with (fruit almost non-existent and no healthy choices in my opinion).  I called the night before to ask for an early check-in.  I was told it would be no problem.  When we arrived a little after 1pm (I had asked for 1 pm check-in) the woman at the desk (asst. mgr., I believe) was argumentative, advising me that I really shouldn't be allowed to check in until 3 pm.  She said this even after I had told her I had called the night before.  The TV didn't work and it took about 30 minutes for someone to come up and fix the problem.  Nice room - clean hotel - just not impressed with the customer service offered.  Will probably go back to Holiday Inn next time.More</t>
   </si>
   <si>
-    <t>modern-day-Griswold</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r220574879-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1701,9 +1533,6 @@
     <t>We stayed here one night while visiting the Dinosaur Park and antique shopping.  The hotel and room were spacious, clean and well maintained.  The female employee at the front desk made us feel very welcome and gave us helpful information about local attractions.  We had a comfortable night's stay and enjoyed breakfast the next morning.  It was a great value for the price.More</t>
   </si>
   <si>
-    <t>Pgagne3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r219115350-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1725,9 +1554,6 @@
     <t>very nice place clean and comfortable beds ,nice friendly staff great location, Stayed there with my wife and it was very nice place and will stay again next time im in the area . if your in the area check it outMore</t>
   </si>
   <si>
-    <t>raydon46</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r215979894-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1752,9 +1578,6 @@
     <t>We rented a king bed suite with two beds for the kids. The hotel was clean, the staff was friendly, and the room was large enough to not be cramped. The breakfast was adequate. We did not use any of the other amenities but they looked OK.More</t>
   </si>
   <si>
-    <t>David M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r211929349-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1782,9 +1605,6 @@
     <t>This is a great place to stay when visiting Dinosaur Valley State Park. The managers here are very professional, yet down home friendly. The decor is nice, the rooms in very good condition, the breakfast just fine. Very very comfortable beds. The managers are very knowledgeable about area paleontology - just ask!  We will definitely stay here again when we re-visit the state park!More</t>
   </si>
   <si>
-    <t>Vikkijk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r208172156-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1806,9 +1626,6 @@
     <t>This hotel is located close to Fossil Rim and Dinosaur Valley. The staff is helpful and so sweet. The rooms are huge! It has a microwave and a small fridge which ended up being a heaven sent! The breakfast was amazing! It has the regular food plus danimals yogurt, two waffle makers, and sausage! It was a great hotel and I definitely recommend it! More</t>
   </si>
   <si>
-    <t>krcorbin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r196133911-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1827,9 +1644,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>ada11s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r186391522-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1848,9 +1662,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>GenThom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r181686698-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1869,9 +1680,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>cricket7591</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r175190373-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1893,9 +1701,6 @@
     <t>Property was clean and well maintained. Our room was nice and clean but.....we arrived to a room of 89 degrees on a day when the temp outside was 100 degrees. Asked the lady at the front desk about the A/C not being on and was told the owner would not allow the air to be turned on ahead of time. This did not make me happy as we had booked our room ahead of time and felt the A/C should have been on to allow the room to start cooling for our arrival. Also, the lady at the front desk pointed out that the A/C was controlled by a wall thermostat which we already discovered once we entered the room and found the A/C was not on. She called later to check to see if the room had cooled down any, which it had not, then proceeded to tell me again about that the A/C was controlled by the wall thermostat. I didn't appreciate being treated as if I was too dumb to get it the first time. We arrived at 3pm and the room temp dropped 4 degrees by 6:15 when we left to see "The Promise". Needless to say the time we wanted to rest was not comfortable due to the room temp. Thankfully when we go back the room around 11pm the room was finally comfortable and the rest of our stay was better. The owner needs...Property was clean and well maintained. Our room was nice and clean but.....we arrived to a room of 89 degrees on a day when the temp outside was 100 degrees. Asked the lady at the front desk about the A/C not being on and was told the owner would not allow the air to be turned on ahead of time. This did not make me happy as we had booked our room ahead of time and felt the A/C should have been on to allow the room to start cooling for our arrival. Also, the lady at the front desk pointed out that the A/C was controlled by a wall thermostat which we already discovered once we entered the room and found the A/C was not on. She called later to check to see if the room had cooled down any, which it had not, then proceeded to tell me again about that the A/C was controlled by the wall thermostat. I didn't appreciate being treated as if I was too dumb to get it the first time. We arrived at 3pm and the room temp dropped 4 degrees by 6:15 when we left to see "The Promise". Needless to say the time we wanted to rest was not comfortable due to the room temp. Thankfully when we go back the room around 11pm the room was finally comfortable and the rest of our stay was better. The owner needs to rethink this policy of not allowing the A/C to be turned on in preparation for the guests who have reserved rooms ahead of time. I am a firm believer in "word of mouth" advertisement - good or bad- as long as it is the truth. I will spread the work to family and friends to look at other hotels AND ask about the A/C policy for those hotels before considering this one if travelling in the summer.More</t>
   </si>
   <si>
-    <t>camshell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r167718273-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1914,9 +1719,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Debbie J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r161901398-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1938,9 +1740,6 @@
     <t>I stayed in this hotel the weekend of May 18-19, 2013 with my grandchildren who live in Granbury. I was a little nervous at first, staying outside of Granbury (all the hotel were full). Much to my surprise, this hotel is only about 15 minutes away. Becky at the front desk was an angel during check-in and throughout our stay. She is wonderful and will do anything possible to make your stay comfortable and relaxing. The room was nice and accommodating. The pool was perfect for my grandchildren. I would highly recommend this hotel to anyone staying in Glen Rose. I drove to Burleson to go shopping at Kohl's and the drive was about 45 mins away but a nice drive.More</t>
   </si>
   <si>
-    <t>Rosie56538</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r161658976-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1959,9 +1758,6 @@
     <t>After evaluating and personally previewing three of the major chain hotels and one boutique hotel in town, we selected the Comfort Inn and Suites, Glen Rose, as the place to book our weekend, based largely on our preview and previous reviews by others.  Unfortunately, looks were deceiving.  I booked three rooms months before our expected arrival date.  The booking clerk confirmed my request for three rooms on the third floor overlooking the back of the hotel (away from the highway).  Upon arrival, we were told that one of the rooms was on the front (highway side) of the hotel and could not be changed because all other rooms on the back of the hotel had been previously booked, prior to my making reservations.  I was also told that those who made those earlier reservations were in town to help with the clean-up from the tornadoes that struck Granbury the previous week.  Does that make any sense?  While our room looked put together at first glance, closer inspection revealed that a picture was missing from the wall (screw holes were apparent), our hair dryer did not work (it smelled of burnt wire), the breakfast was worse than any other cheap hotel "full" breakfast I've ever had (think boiled sausage patty and a rectangular, mono-color egg), the TV didn't work unless we unplugged and re-connected the TV and cable box power each time we wanted to turn it on (then it went...After evaluating and personally previewing three of the major chain hotels and one boutique hotel in town, we selected the Comfort Inn and Suites, Glen Rose, as the place to book our weekend, based largely on our preview and previous reviews by others.  Unfortunately, looks were deceiving.  I booked three rooms months before our expected arrival date.  The booking clerk confirmed my request for three rooms on the third floor overlooking the back of the hotel (away from the highway).  Upon arrival, we were told that one of the rooms was on the front (highway side) of the hotel and could not be changed because all other rooms on the back of the hotel had been previously booked, prior to my making reservations.  I was also told that those who made those earlier reservations were in town to help with the clean-up from the tornadoes that struck Granbury the previous week.  Does that make any sense?  While our room looked put together at first glance, closer inspection revealed that a picture was missing from the wall (screw holes were apparent), our hair dryer did not work (it smelled of burnt wire), the breakfast was worse than any other cheap hotel "full" breakfast I've ever had (think boiled sausage patty and a rectangular, mono-color egg), the TV didn't work unless we unplugged and re-connected the TV and cable box power each time we wanted to turn it on (then it went through channel search each time; others had the same experience), there was no facial tissue in the room until the second day and there was no laundry bag.  Whenever our room was made up, the A/C was turned up so we arrived to a warm room.  If it weren't for the fantastic shower . . . .More</t>
   </si>
   <si>
-    <t>texasrepublichistory</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r158759434-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1983,9 +1779,6 @@
     <t>Spent one mid-week night at the Comfort Inn and found it a great choice for Glen Rose visitors. Check-in was fast and easy, since I had called a few days earlier. The grounds are clean and well-maintained, but the hotel is hard to see, as it is located behind a large, empty office building. Good part is that this separates the hotel from the main street and makes it very quiet. The front desk staff was friendly and my room was large and very clean. Even the lobby and halls smelled clean and fresh. My bed was Very comfortable and the room had a nice reading chair &amp; lamp, as well as a good work desk, m/w, frig, coffee maker, etc. Free internet was fast and the TV worked well. Breakfast was standard continental, but I drove down to Debbie's for a big home-style breakfast. It all, a very comfortable, clean, quiet hotel for a good price. Recommended.More</t>
   </si>
   <si>
-    <t>jriley7531</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r158479184-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2001,9 +1794,6 @@
     <t>Only spent one night here to attend a funeral in the area,but was well pleased with the motel.  It is back off the main highway which cuts out most of the traffic noise,  Desk staff was very helpful sending us to a good restaurant and giving us directions around the small, very quaint town.  The walls are a little thin, but we were lucky no loud neighbors bothered us.  A very pleasant stay, all things considered.  We would stay again if we are in the area.</t>
   </si>
   <si>
-    <t>tigershark6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r157062050-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2019,9 +1809,6 @@
     <t>Just spend a few nights there. Perfectly ok.  Strong Internet signal, working outdoor jacuzzi, the heat and shower worked, the bed was comfortable, the place was clean, the people nice.  No restaurant and breakfast a little shaky. Thin walls.  Oh well. You can spend a lot more for the same or less</t>
   </si>
   <si>
-    <t>travelalert7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r149188978-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2043,9 +1830,6 @@
     <t>This hotel is clean, new, with a good front desk and the staff is helpful. The rooms are nice.However, they must have skimped on sound-proofing because you can hear every word of a cell phone conversation from the room next door. The person might just as well had been in my room. I also could hear every word of a normal conversation the two people in the room next to me had. And every night, when the person in that room snored, they might as well been sleeping on the couch in my room. If you are on the first or second floor, you can easily hear the people moving around in the room above you.It's a shame about the soundproofing, because the hotel is otherwise a good value.More</t>
   </si>
   <si>
-    <t>JHolemanExpress</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r147729541-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2067,9 +1851,6 @@
     <t>My kids and I stayed at this hotel and I couldn't be happier about our experience.  It's under new management and we could see the employees busily cleaning, checking on us and other guests, and just fussing over all of us like mothers!  I felt like a member of their family.  There was a basketball team one of the nights and we didn't hear a thing.  The exterior grounds are well-maintained and the view is to die for - it's like you're actually IN the landscape.  Also, there are dinosaur foot prints like 30 feet from the back fence!!  The interior and room were spotless and it's evident they really wanted to make this a hotel to remember.  From check-in to breakfast to check-out and the personal suggestions for local attractions, I am thrilled with this hotel.  I actually plan to go back and stay here to see more of the attractions because I was just overwhelmed with the awesomeness of this hotel and its staff.More</t>
   </si>
   <si>
-    <t>shanelimes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r140452691-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2088,9 +1869,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Sharon Q</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r137206261-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2109,9 +1887,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Joyinliving</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r134644643-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2130,9 +1905,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>ckelly0712</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r134060361-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2151,9 +1923,6 @@
     <t>When i made my reservation I called to make sure we could have an early check in bc we were driving a long distance over night. i was told it was okay, no mention of a fee. when I saw the gps had us arriving about an hour earlier than planned I called again to make sure it would not be a problem to check in when we arrived. But when I got there as the desk clerk [who was clearly very new, I have nothing bad to say about him. he was very nice and apologetic] was checking us in, another girl came in who i was later told is the asst. manager. At first she had a bit of an attitude, telling me it was too early, i couldnt check in for another 3 hours and even then i'd have to pay a fee, and pointed out that the note on the computer was for a different time. I told her it was off by only an hour and that i was told two separate times by two separate people that it was okay for us to have an early check in and no one mentioned a fee. After calling the manager and getting the okay she lost the attitude and was okay. I was later told that the early check in had already been cleared with the manager when I made the reservation, so had that been...When i made my reservation I called to make sure we could have an early check in bc we were driving a long distance over night. i was told it was okay, no mention of a fee. when I saw the gps had us arriving about an hour earlier than planned I called again to make sure it would not be a problem to check in when we arrived. But when I got there as the desk clerk [who was clearly very new, I have nothing bad to say about him. he was very nice and apologetic] was checking us in, another girl came in who i was later told is the asst. manager. At first she had a bit of an attitude, telling me it was too early, i couldnt check in for another 3 hours and even then i'd have to pay a fee, and pointed out that the note on the computer was for a different time. I told her it was off by only an hour and that i was told two separate times by two separate people that it was okay for us to have an early check in and no one mentioned a fee. After calling the manager and getting the okay she lost the attitude and was okay. I was later told that the early check in had already been cleared with the manager when I made the reservation, so had that been notated in the computer the whole thing could have been avoided. The room was nice, the beds comfortable, everything was clean. Dinosaur world and dinosaur river valley state park are very close to the hotel. breakfast was out a bit early and included eggs, sausage gravy, biscuits and other pasteries, 3 types of cereal including fruit loops for the little one and texas shaped waffles in blue berry or regular. only complaint is that the biscuits werent warm so we had to put them in the toaster, and the only yogurt was activia which in my humble opinion is disgusting. There was a large saltwater pool, a kiddie pool and a whirlpool. The kiddie pool had a dead frog and a towel in it, the pool a pair of boxers or shorts. Overall the stay was fine. some things could be improved but for the most part it was a nice hotel.More</t>
   </si>
   <si>
-    <t>JoeyWi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r132472553-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2172,9 +1941,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>MCtravler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r127858551-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2193,9 +1959,6 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>weesm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r126686749-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2217,9 +1980,6 @@
     <t>Nice place to stay for a short trip to Glen Rose, known for dinosaur tracks.  When we arrived, we were told they found new tracks just behind the hotel and we could go learn more!  The kids were thrilled to meet the paleontologist who explained what tracks the team found (by what dinosaurs) and the history of the dig site, its much better than going to the museum as this is the real thing.  Guess that will be a new attraction to Comfort Inn for now.  Great front desk and GM who gave excellent recommendations to sites and dinning in the area.  Rooms were clean and adequate size for a small family, breakfast was good but it was a little crowded during spring break.  We had a fire alarm at 4 am one night, not sure of the cause, but all the guests gathered at the car park without much fuss.More</t>
   </si>
   <si>
-    <t>TXDavid937</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r118674484-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2238,9 +1998,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Kaniki</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r117839274-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2256,9 +2013,6 @@
     <t>Nice and quiet.  Pool is a little small but adequate.  Clean and comfortable.  Has a small refrigerator but no freezer section.  Front desk clerk was very knowledge and helpful.</t>
   </si>
   <si>
-    <t>NP007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r117204404-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2277,9 +2031,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>TexasEunice</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r117046718-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2304,9 +2055,6 @@
     <t>Had two little 7 and 8 year old boys with us.  This large suite was great.  Staff was very pleasant.  Complimentary Breakfast was your average hot and cold mix of items.  Hotel was very clean and the beds were comfortable.  Didn't understand the use of 6 little pillows on each bed.  Seemed like alot of laundry.  Pool area was nice and large with three areas.  Whirlpool, baby pool, and larger pool.  Would definitely stay there again.More</t>
   </si>
   <si>
-    <t>DJE20</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r116271139-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2331,9 +2079,6 @@
     <t>Very clen, convenient to Dinosaur Valley. Great indoor pool. Good breakfast.More</t>
   </si>
   <si>
-    <t>Texas-Traveler634</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r115288893-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2355,9 +2100,6 @@
     <t>We really didn't expect much from a hotel in a small town, but were very pleasantly surprised at how nice this hotel was!  Beautiful lobby, spacious breakfast area, large room and very comfortable bed!  We had a wonderful stay!More</t>
   </si>
   <si>
-    <t>Rodshar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r113208117-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2376,9 +2118,6 @@
     <t>The bed in our room was wonderful!  The rooms are a nice size and have all the amenities.  I'll definitely stay here again.  I wasn't impressed with the free breakfast, however.   I'm just not a fan of the free cold breakfasts at hotels/motels. With a microwave in the room, I prefer to get my own breakfast treats.More</t>
   </si>
   <si>
-    <t>Abird131</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r112087892-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2400,9 +2139,6 @@
     <t>We were staying two nights for our anniversary.  Very clean and nice.  The room and bathroom were spacious.  The pool and hot tub were nice.  The breakfast was ok.  The only complaint we had were the pillows....very small.  If you can remember, bring your own.  We would definitely stay here again.More</t>
   </si>
   <si>
-    <t>TravelingTexasChick</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r66685610-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2424,9 +2160,6 @@
     <t>We enjoyed our 1-night stay at Comfort Inn. The rooms were spacious and clean and the beds were comfortable.  The bathrooms were surprisingly nice-it had a stone counter top, curved shower rod, and a hairdryer.  The amenities brought all the comforts of home: cable tv, mini-fridge, desk and chair, wireless internet, work-out room, pool,hot-tub and hot breakfasts. Feels and looks new. I agree with another reviewer who said that the water smelled like sulphur. Still, I would feel comfortable staying here again.More</t>
   </si>
   <si>
-    <t>sdavidsonRoyseCityTx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r65855485-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2445,9 +2178,6 @@
     <t>May 2010</t>
   </si>
   <si>
-    <t>kelliej99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r59610165-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2475,9 +2205,6 @@
     <t>After a recent stay at this hotel the general manager called to inform me that I was being charged $440 for broken box springs in the room.  My son had thrown up on one of the beds and, because I went to the front desk and informed them of the situation, I assume the mattresses were being turned and maybe cleaned and that is when the one broken box spring was discovered.  I say one box spring because, in the pictures that the manager himself sent me, on one of the box springs only the thin fabric that is covering it is torn.  The other has a broken slat in the middle of the bed that I probably slept on without knowing it was broken.  I then received a bill from the manager along with the receipt for the 2 new  Stearns and Foster box springs he purchased at a local furniture store.   From the pictures that were sent, it is obvious the original box springs were of a much lesser quality, not Stearns and Foster.  My other warning is that Choice Hotels International is not willing to do anything about the situation.  They have only said that the hotels are individually owned and refer me back to the general manager/owner that robbed me of the $440 in the first place.More</t>
   </si>
   <si>
-    <t>pumakix</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r58671866-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2493,9 +2220,6 @@
     <t>Booked over the phone after searching for a place online. The front desk staff was great, very friendly and efficient. The rooms are good still a new hotel. Be warned they have a high sulphur content so the water is smelly.</t>
   </si>
   <si>
-    <t>ozmaofoz74</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r58117476-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2520,9 +2244,6 @@
     <t>We stopped for the night and had a great experience. I was impressed with the price, the motel was quiet, beds were comfortable, and the room was spotless. Check-in staff was young, but very helpful and the price was right. The room was also larger than I expected and the bathroom was much nicer than I expected (with stone countertops).My main issue with any hotel/motel in this part of the country is the smell of cigarette smoke and how clean the floors and carpet are (this seems to signal how clean everything else is!). This hotel did not smell like smoke and the floors in the lobby and carpet in the room were very clean. There is also a pretty good restaurant across the parking lot (a nice steak place and a sports bar that share a kitchen). We're fans of fresh food (as opposed to what just comes off of a Cisco truck) and we liked the meal very much. We'll stay here again the next time we're driving through and need to stop.More</t>
   </si>
   <si>
-    <t>TOG11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r51993210-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2541,9 +2262,6 @@
     <t>December 2009</t>
   </si>
   <si>
-    <t>bc_pa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r32715345-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2562,9 +2280,6 @@
     <t>June 2009</t>
   </si>
   <si>
-    <t>Snail107</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r30393463-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2583,9 +2298,6 @@
     <t>April 2009</t>
   </si>
   <si>
-    <t>forsure</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r17835761-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2607,9 +2319,6 @@
     <t>this was the most enjoyable experience i have had in a good while. the property is very beautiful and the rooms were really big!!. I slept better on there mattress than I did on my own!!the management was very helpful and the front desk staff as well. when making the reservation online i booked the wrong room type. When i requested to change my roomtype upon arrival, it was not available, had already been sold out, so I was upgraded at no extra charge. I WAS THERE ON BUSINESS AND THE FREE WI-FI WAS DEFINATELY A PLUS. bREAKFAST WAS ALWAYS HOT AND DELICIOUS!! BETTER THAN WHAT I EAT AT HOME. I WILL DEFINATELY BE GOING BACK AGAIN. I HAD PREVIOUSLY STAYED AT THE BEST WESTERN AND I DO HAVE TO SAY I ENJOYED MY STAY AT THE COMFORT INN AND SUITES MUCH BETTER, THE AMMENITIES ARE BETTER AND THE STAFF IS MUCH MORE HELPFUL AND FRIENDLY.More</t>
   </si>
   <si>
-    <t>lsws</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r17541699-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2628,9 +2337,6 @@
     <t>June 2008</t>
   </si>
   <si>
-    <t>Kan25</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r17486592-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2649,9 +2355,6 @@
     <t>Get this!  Booked room online at their website &amp; when we got there, they had given away our room!  We were not even late!  They were able to get us another room and discounted rate, they said, but looking up the rate online afterward showed a cheaper rate than we were given!  Hotel is new and staff not yet knowledgable on how reservations work, apparently!  THEN, as if it could be anymore ridiculous, after we were told there were no other rooms left in the hotel &amp; they were turning away people all day, my brother called in for a reservation. After a 45 minute discussion and being put on hold many times, the girl gave him a room! How was that possible, I thought.  So, I went downstairs to make sure there was a room and the girl said yes.  NO THERE WAS NOT! When he checked in and paid for the room, someone was already in it! They got him a room elsewhere for free luckily. and gave him a refund.  Worst experience with checkin I've ever had. Hotel is beautiful and new, but staff is ignorant, so beware. Side doors did not work with room keys either.  Boss was out of town, so it could not be dealt with.More</t>
   </si>
   <si>
-    <t>keepinitrealestate</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r16908890-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -2671,9 +2374,6 @@
   </si>
   <si>
     <t>The property is beautiful on the outside...can't say the same for the people on the inside. I went here on business and they had a handful of construction workers that were playing loud music and drinking beer. I went to complain to the staff and they assured me that they would take care of it. Probably an hour later, the same noise came again. I called the front desk and they told me they have been staying there for a month and were planning to stay longer. They were well-paying customers, therefore, didn't put any more effort to allow others to get a good night of sleep. Had to get a refund and stay at the Americas Best Value Inn across the street. Should've went there the first place...and ended up saving a few bucks too.More</t>
-  </si>
-  <si>
-    <t>J-in-TX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d1008574-r13665506-Comfort_Inn_Suites_Near_Comanche_Peak-Glen_Rose_Texas.html</t>
@@ -3199,47 +2899,43 @@
       <c r="A2" t="n">
         <v>57509</v>
       </c>
-      <c r="B2" t="n">
-        <v>17277</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3253,54 +2949,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57509</v>
       </c>
-      <c r="B3" t="n">
-        <v>4468</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3314,54 +3006,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57509</v>
       </c>
-      <c r="B4" t="n">
-        <v>23382</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3379,54 +3067,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57509</v>
       </c>
-      <c r="B5" t="n">
-        <v>124549</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -3444,54 +3128,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57509</v>
       </c>
-      <c r="B6" t="n">
-        <v>124550</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3505,54 +3185,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57509</v>
       </c>
-      <c r="B7" t="n">
-        <v>124551</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3572,54 +3248,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57509</v>
       </c>
-      <c r="B8" t="n">
-        <v>124552</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3633,54 +3305,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57509</v>
       </c>
-      <c r="B9" t="n">
-        <v>42132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3700,54 +3368,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57509</v>
       </c>
-      <c r="B10" t="n">
-        <v>124553</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3765,54 +3429,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57509</v>
       </c>
-      <c r="B11" t="n">
-        <v>124554</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3830,60 +3490,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57509</v>
       </c>
-      <c r="B12" t="n">
-        <v>124555</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3903,54 +3559,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57509</v>
       </c>
-      <c r="B13" t="n">
-        <v>124556</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3962,60 +3614,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57509</v>
       </c>
-      <c r="B14" t="n">
-        <v>124557</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4027,60 +3675,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57509</v>
       </c>
-      <c r="B15" t="n">
-        <v>14931</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -4096,60 +3740,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57509</v>
       </c>
-      <c r="B16" t="n">
-        <v>124558</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4161,60 +3801,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57509</v>
       </c>
-      <c r="B17" t="n">
-        <v>124559</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4230,60 +3866,56 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57509</v>
       </c>
-      <c r="B18" t="n">
-        <v>124560</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4295,60 +3927,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57509</v>
       </c>
-      <c r="B19" t="n">
-        <v>124561</v>
-      </c>
-      <c r="C19" t="s">
-        <v>186</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4366,60 +3994,56 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57509</v>
       </c>
-      <c r="B20" t="n">
-        <v>9654</v>
-      </c>
-      <c r="C20" t="s">
-        <v>196</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4437,60 +4061,56 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57509</v>
       </c>
-      <c r="B21" t="n">
-        <v>46935</v>
-      </c>
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4508,60 +4128,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57509</v>
       </c>
-      <c r="B22" t="n">
-        <v>124562</v>
-      </c>
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4579,60 +4195,56 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57509</v>
       </c>
-      <c r="B23" t="n">
-        <v>1363</v>
-      </c>
-      <c r="C23" t="s">
-        <v>224</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4644,60 +4256,56 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57509</v>
       </c>
-      <c r="B24" t="n">
-        <v>124563</v>
-      </c>
-      <c r="C24" t="s">
-        <v>234</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4713,60 +4321,56 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="X24" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57509</v>
       </c>
-      <c r="B25" t="n">
-        <v>124564</v>
-      </c>
-      <c r="C25" t="s">
-        <v>244</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4782,60 +4386,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57509</v>
       </c>
-      <c r="B26" t="n">
-        <v>124565</v>
-      </c>
-      <c r="C26" t="s">
-        <v>253</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4851,60 +4451,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="X26" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Y26" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57509</v>
       </c>
-      <c r="B27" t="n">
-        <v>124566</v>
-      </c>
-      <c r="C27" t="s">
-        <v>263</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4916,60 +4512,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57509</v>
       </c>
-      <c r="B28" t="n">
-        <v>124567</v>
-      </c>
-      <c r="C28" t="s">
-        <v>272</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4987,60 +4579,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="X28" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="Y28" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57509</v>
       </c>
-      <c r="B29" t="n">
-        <v>124568</v>
-      </c>
-      <c r="C29" t="s">
-        <v>281</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -5052,60 +4640,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="X29" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57509</v>
       </c>
-      <c r="B30" t="n">
-        <v>124569</v>
-      </c>
-      <c r="C30" t="s">
-        <v>290</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5117,60 +4701,56 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="Y30" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57509</v>
       </c>
-      <c r="B31" t="n">
-        <v>57512</v>
-      </c>
-      <c r="C31" t="s">
-        <v>298</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5182,60 +4762,56 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="X31" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57509</v>
       </c>
-      <c r="B32" t="n">
-        <v>124570</v>
-      </c>
-      <c r="C32" t="s">
-        <v>308</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5247,60 +4823,56 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="X32" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57509</v>
       </c>
-      <c r="B33" t="n">
-        <v>124571</v>
-      </c>
-      <c r="C33" t="s">
-        <v>315</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -5318,60 +4890,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="X33" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57509</v>
       </c>
-      <c r="B34" t="n">
-        <v>124572</v>
-      </c>
-      <c r="C34" t="s">
-        <v>324</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5389,60 +4957,56 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="X34" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="Y34" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57509</v>
       </c>
-      <c r="B35" t="n">
-        <v>124573</v>
-      </c>
-      <c r="C35" t="s">
-        <v>334</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5458,60 +5022,56 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="X35" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57509</v>
       </c>
-      <c r="B36" t="n">
-        <v>8208</v>
-      </c>
-      <c r="C36" t="s">
-        <v>344</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5523,60 +5083,56 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="X36" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="Y36" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57509</v>
       </c>
-      <c r="B37" t="n">
-        <v>26383</v>
-      </c>
-      <c r="C37" t="s">
-        <v>354</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5594,60 +5150,56 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="X37" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="Y37" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57509</v>
       </c>
-      <c r="B38" t="n">
-        <v>89570</v>
-      </c>
-      <c r="C38" t="s">
-        <v>364</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5663,60 +5215,56 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57509</v>
       </c>
-      <c r="B39" t="n">
-        <v>124574</v>
-      </c>
-      <c r="C39" t="s">
-        <v>373</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5732,60 +5280,56 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57509</v>
       </c>
-      <c r="B40" t="n">
-        <v>124575</v>
-      </c>
-      <c r="C40" t="s">
-        <v>382</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="J40" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5803,60 +5347,56 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="X40" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="Y40" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57509</v>
       </c>
-      <c r="B41" t="n">
-        <v>26575</v>
-      </c>
-      <c r="C41" t="s">
-        <v>391</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="J41" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5872,60 +5412,56 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="X41" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="Y41" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57509</v>
       </c>
-      <c r="B42" t="n">
-        <v>124576</v>
-      </c>
-      <c r="C42" t="s">
-        <v>401</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5943,60 +5479,56 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="X42" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57509</v>
       </c>
-      <c r="B43" t="n">
-        <v>124577</v>
-      </c>
-      <c r="C43" t="s">
-        <v>410</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -6014,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="X43" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="Y43" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44">
@@ -6033,37 +5565,37 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -6081,60 +5613,56 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="X44" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="Y44" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57509</v>
       </c>
-      <c r="B45" t="n">
-        <v>124578</v>
-      </c>
-      <c r="C45" t="s">
-        <v>428</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="O45" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6146,51 +5674,47 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="X45" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="Y45" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57509</v>
       </c>
-      <c r="B46" t="n">
-        <v>124579</v>
-      </c>
-      <c r="C46" t="s">
-        <v>437</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="J46" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -6207,60 +5731,56 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="X46" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Y46" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57509</v>
       </c>
-      <c r="B47" t="n">
-        <v>1581</v>
-      </c>
-      <c r="C47" t="s">
-        <v>446</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="J47" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="K47" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -6278,60 +5798,56 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="X47" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="Y47" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57509</v>
       </c>
-      <c r="B48" t="n">
-        <v>124580</v>
-      </c>
-      <c r="C48" t="s">
-        <v>456</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="J48" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6349,60 +5865,56 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="X48" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="Y48" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57509</v>
       </c>
-      <c r="B49" t="n">
-        <v>124581</v>
-      </c>
-      <c r="C49" t="s">
-        <v>466</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6418,60 +5930,56 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="X49" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="Y49" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57509</v>
       </c>
-      <c r="B50" t="n">
-        <v>124582</v>
-      </c>
-      <c r="C50" t="s">
-        <v>475</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="J50" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="K50" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="O50" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6487,51 +5995,47 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="X50" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="Y50" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57509</v>
       </c>
-      <c r="B51" t="n">
-        <v>124583</v>
-      </c>
-      <c r="C51" t="s">
-        <v>484</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="J51" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="K51" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
@@ -6558,51 +6062,47 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="X51" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57509</v>
       </c>
-      <c r="B52" t="n">
-        <v>124584</v>
-      </c>
-      <c r="C52" t="s">
-        <v>493</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -6629,60 +6129,56 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="X52" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Y52" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57509</v>
       </c>
-      <c r="B53" t="n">
-        <v>124585</v>
-      </c>
-      <c r="C53" t="s">
-        <v>502</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="J53" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="O53" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6700,60 +6196,56 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="X53" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="Y53" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57509</v>
       </c>
-      <c r="B54" t="n">
-        <v>124586</v>
-      </c>
-      <c r="C54" t="s">
-        <v>512</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="J54" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="K54" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="L54" t="s">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6765,51 +6257,47 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>518</v>
+        <v>466</v>
       </c>
       <c r="X54" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="Y54" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57509</v>
       </c>
-      <c r="B55" t="n">
-        <v>124587</v>
-      </c>
-      <c r="C55" t="s">
-        <v>521</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="J55" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="L55" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -6826,60 +6314,56 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="X55" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="Y55" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57509</v>
       </c>
-      <c r="B56" t="n">
-        <v>124588</v>
-      </c>
-      <c r="C56" t="s">
-        <v>530</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>531</v>
+        <v>477</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>532</v>
+        <v>478</v>
       </c>
       <c r="J56" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="K56" t="s">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="L56" t="s">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
       <c r="O56" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6895,60 +6379,56 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="X56" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="Y56" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57509</v>
       </c>
-      <c r="B57" t="n">
-        <v>124589</v>
-      </c>
-      <c r="C57" t="s">
-        <v>540</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="J57" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="K57" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6964,60 +6444,56 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="X57" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="Y57" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57509</v>
       </c>
-      <c r="B58" t="n">
-        <v>124590</v>
-      </c>
-      <c r="C58" t="s">
-        <v>547</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="J58" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="L58" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -7035,60 +6511,56 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="X58" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="Y58" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57509</v>
       </c>
-      <c r="B59" t="n">
-        <v>124591</v>
-      </c>
-      <c r="C59" t="s">
-        <v>557</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="J59" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
       <c r="K59" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="L59" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="O59" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -7104,60 +6576,56 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="X59" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="Y59" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57509</v>
       </c>
-      <c r="B60" t="n">
-        <v>124592</v>
-      </c>
-      <c r="C60" t="s">
-        <v>565</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
       <c r="J60" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="K60" t="s">
-        <v>569</v>
+        <v>511</v>
       </c>
       <c r="L60" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="O60" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -7173,60 +6641,56 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>571</v>
+        <v>513</v>
       </c>
       <c r="X60" t="s">
-        <v>572</v>
+        <v>514</v>
       </c>
       <c r="Y60" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57509</v>
       </c>
-      <c r="B61" t="n">
-        <v>2192</v>
-      </c>
-      <c r="C61" t="s">
-        <v>574</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="J61" t="s">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="K61" t="s">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="L61" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>580</v>
+        <v>521</v>
       </c>
       <c r="O61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -7248,51 +6712,47 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="X61" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="Y61" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57509</v>
       </c>
-      <c r="B62" t="n">
-        <v>124593</v>
-      </c>
-      <c r="C62" t="s">
-        <v>584</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="J62" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="K62" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="L62" t="s">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -7319,60 +6779,56 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="X62" t="s">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="Y62" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57509</v>
       </c>
-      <c r="B63" t="n">
-        <v>124594</v>
-      </c>
-      <c r="C63" t="s">
-        <v>592</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>594</v>
+        <v>533</v>
       </c>
       <c r="J63" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
       <c r="K63" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="L63" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7396,54 +6852,50 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57509</v>
       </c>
-      <c r="B64" t="n">
-        <v>124595</v>
-      </c>
-      <c r="C64" t="s">
-        <v>599</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>600</v>
+        <v>538</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>601</v>
+        <v>539</v>
       </c>
       <c r="J64" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
       <c r="K64" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="L64" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7457,54 +6909,50 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57509</v>
       </c>
-      <c r="B65" t="n">
-        <v>124596</v>
-      </c>
-      <c r="C65" t="s">
-        <v>606</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>607</v>
+        <v>544</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="J65" t="s">
-        <v>609</v>
+        <v>546</v>
       </c>
       <c r="K65" t="s">
-        <v>610</v>
+        <v>547</v>
       </c>
       <c r="L65" t="s">
-        <v>611</v>
+        <v>548</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="O65" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7518,54 +6966,50 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>611</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57509</v>
       </c>
-      <c r="B66" t="n">
-        <v>124597</v>
-      </c>
-      <c r="C66" t="s">
-        <v>613</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>614</v>
+        <v>550</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>615</v>
+        <v>551</v>
       </c>
       <c r="J66" t="s">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="K66" t="s">
-        <v>617</v>
+        <v>553</v>
       </c>
       <c r="L66" t="s">
-        <v>618</v>
+        <v>554</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>619</v>
+        <v>555</v>
       </c>
       <c r="O66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7589,54 +7033,50 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>620</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57509</v>
       </c>
-      <c r="B67" t="n">
-        <v>124598</v>
-      </c>
-      <c r="C67" t="s">
-        <v>621</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>622</v>
+        <v>557</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>623</v>
+        <v>558</v>
       </c>
       <c r="J67" t="s">
-        <v>624</v>
+        <v>559</v>
       </c>
       <c r="K67" t="s">
-        <v>625</v>
+        <v>560</v>
       </c>
       <c r="L67" t="s">
-        <v>626</v>
+        <v>561</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>627</v>
+        <v>562</v>
       </c>
       <c r="O67" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7660,54 +7100,50 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>626</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57509</v>
       </c>
-      <c r="B68" t="n">
-        <v>35143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>628</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
       <c r="J68" t="s">
-        <v>631</v>
+        <v>565</v>
       </c>
       <c r="K68" t="s">
-        <v>632</v>
+        <v>566</v>
       </c>
       <c r="L68" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="O68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7731,54 +7167,50 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>635</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57509</v>
       </c>
-      <c r="B69" t="n">
-        <v>124599</v>
-      </c>
-      <c r="C69" t="s">
-        <v>636</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="J69" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="K69" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="L69" t="s">
-        <v>641</v>
+        <v>574</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="O69" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7802,54 +7234,50 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57509</v>
       </c>
-      <c r="B70" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C70" t="s">
-        <v>643</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
       <c r="J70" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
       <c r="K70" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
       <c r="L70" t="s">
-        <v>648</v>
+        <v>580</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
       <c r="O70" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7873,54 +7301,50 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>650</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57509</v>
       </c>
-      <c r="B71" t="n">
-        <v>124601</v>
-      </c>
-      <c r="C71" t="s">
-        <v>651</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>652</v>
+        <v>583</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>653</v>
+        <v>584</v>
       </c>
       <c r="J71" t="s">
-        <v>654</v>
+        <v>585</v>
       </c>
       <c r="K71" t="s">
-        <v>655</v>
+        <v>586</v>
       </c>
       <c r="L71" t="s">
-        <v>656</v>
+        <v>587</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
       <c r="O71" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7944,54 +7368,50 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>656</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57509</v>
       </c>
-      <c r="B72" t="n">
-        <v>57179</v>
-      </c>
-      <c r="C72" t="s">
-        <v>657</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>658</v>
+        <v>588</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>659</v>
+        <v>589</v>
       </c>
       <c r="J72" t="s">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="K72" t="s">
-        <v>661</v>
+        <v>591</v>
       </c>
       <c r="L72" t="s">
-        <v>662</v>
+        <v>592</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
       <c r="O72" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -8015,54 +7435,50 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>662</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57509</v>
       </c>
-      <c r="B73" t="n">
-        <v>124602</v>
-      </c>
-      <c r="C73" t="s">
-        <v>663</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>665</v>
+        <v>594</v>
       </c>
       <c r="J73" t="s">
-        <v>666</v>
+        <v>595</v>
       </c>
       <c r="K73" t="s">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="L73" t="s">
-        <v>668</v>
+        <v>597</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>669</v>
+        <v>598</v>
       </c>
       <c r="O73" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -8076,54 +7492,50 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>670</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57509</v>
       </c>
-      <c r="B74" t="n">
-        <v>124603</v>
-      </c>
-      <c r="C74" t="s">
-        <v>671</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>672</v>
+        <v>600</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>673</v>
+        <v>601</v>
       </c>
       <c r="J74" t="s">
-        <v>674</v>
+        <v>602</v>
       </c>
       <c r="K74" t="s">
-        <v>675</v>
+        <v>603</v>
       </c>
       <c r="L74" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="O74" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -8147,54 +7559,50 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>678</v>
+        <v>606</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57509</v>
       </c>
-      <c r="B75" t="n">
-        <v>124604</v>
-      </c>
-      <c r="C75" t="s">
-        <v>679</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>680</v>
+        <v>607</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="J75" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="K75" t="s">
-        <v>683</v>
+        <v>610</v>
       </c>
       <c r="L75" t="s">
-        <v>684</v>
+        <v>611</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>685</v>
+        <v>612</v>
       </c>
       <c r="O75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8218,54 +7626,50 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>684</v>
+        <v>611</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57509</v>
       </c>
-      <c r="B76" t="n">
-        <v>61458</v>
-      </c>
-      <c r="C76" t="s">
-        <v>686</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>687</v>
+        <v>613</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="J76" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="K76" t="s">
-        <v>690</v>
+        <v>616</v>
       </c>
       <c r="L76" t="s">
-        <v>691</v>
+        <v>617</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
       <c r="O76" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8289,54 +7693,50 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>691</v>
+        <v>617</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57509</v>
       </c>
-      <c r="B77" t="n">
-        <v>124605</v>
-      </c>
-      <c r="C77" t="s">
-        <v>693</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>695</v>
+        <v>620</v>
       </c>
       <c r="J77" t="s">
-        <v>696</v>
+        <v>621</v>
       </c>
       <c r="K77" t="s">
-        <v>697</v>
+        <v>622</v>
       </c>
       <c r="L77" t="s">
-        <v>698</v>
+        <v>623</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>699</v>
+        <v>624</v>
       </c>
       <c r="O77" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8360,54 +7760,50 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>698</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57509</v>
       </c>
-      <c r="B78" t="n">
-        <v>16642</v>
-      </c>
-      <c r="C78" t="s">
-        <v>700</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>701</v>
+        <v>625</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>702</v>
+        <v>626</v>
       </c>
       <c r="J78" t="s">
-        <v>703</v>
+        <v>627</v>
       </c>
       <c r="K78" t="s">
-        <v>704</v>
+        <v>628</v>
       </c>
       <c r="L78" t="s">
-        <v>705</v>
+        <v>629</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>699</v>
+        <v>624</v>
       </c>
       <c r="O78" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8431,54 +7827,50 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>706</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57509</v>
       </c>
-      <c r="B79" t="n">
-        <v>124606</v>
-      </c>
-      <c r="C79" t="s">
-        <v>707</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>708</v>
+        <v>631</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>709</v>
+        <v>632</v>
       </c>
       <c r="J79" t="s">
-        <v>710</v>
+        <v>633</v>
       </c>
       <c r="K79" t="s">
-        <v>711</v>
+        <v>634</v>
       </c>
       <c r="L79" t="s">
-        <v>712</v>
+        <v>635</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>713</v>
+        <v>636</v>
       </c>
       <c r="O79" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8502,54 +7894,50 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>712</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57509</v>
       </c>
-      <c r="B80" t="n">
-        <v>120579</v>
-      </c>
-      <c r="C80" t="s">
-        <v>714</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>715</v>
+        <v>637</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
-        <v>716</v>
+        <v>638</v>
       </c>
       <c r="J80" t="s">
-        <v>717</v>
+        <v>639</v>
       </c>
       <c r="K80" t="s">
-        <v>718</v>
+        <v>640</v>
       </c>
       <c r="L80" t="s">
-        <v>719</v>
+        <v>641</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>720</v>
+        <v>642</v>
       </c>
       <c r="O80" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8573,54 +7961,50 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>719</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57509</v>
       </c>
-      <c r="B81" t="n">
-        <v>124607</v>
-      </c>
-      <c r="C81" t="s">
-        <v>721</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>722</v>
+        <v>643</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I81" t="s">
-        <v>723</v>
+        <v>644</v>
       </c>
       <c r="J81" t="s">
-        <v>724</v>
+        <v>645</v>
       </c>
       <c r="K81" t="s">
-        <v>725</v>
+        <v>646</v>
       </c>
       <c r="L81" t="s">
-        <v>726</v>
+        <v>647</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>727</v>
+        <v>648</v>
       </c>
       <c r="O81" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8644,54 +8028,50 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>728</v>
+        <v>649</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57509</v>
       </c>
-      <c r="B82" t="n">
-        <v>124608</v>
-      </c>
-      <c r="C82" t="s">
-        <v>729</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>730</v>
+        <v>650</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>731</v>
+        <v>651</v>
       </c>
       <c r="J82" t="s">
-        <v>732</v>
+        <v>652</v>
       </c>
       <c r="K82" t="s">
-        <v>733</v>
+        <v>653</v>
       </c>
       <c r="L82" t="s">
-        <v>734</v>
+        <v>654</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>735</v>
+        <v>655</v>
       </c>
       <c r="O82" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8715,54 +8095,50 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>734</v>
+        <v>654</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57509</v>
       </c>
-      <c r="B83" t="n">
-        <v>124609</v>
-      </c>
-      <c r="C83" t="s">
-        <v>736</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>737</v>
+        <v>656</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>738</v>
+        <v>657</v>
       </c>
       <c r="J83" t="s">
-        <v>739</v>
+        <v>658</v>
       </c>
       <c r="K83" t="s">
-        <v>740</v>
+        <v>659</v>
       </c>
       <c r="L83" t="s">
-        <v>741</v>
+        <v>660</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>735</v>
+        <v>655</v>
       </c>
       <c r="O83" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8782,54 +8158,50 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>741</v>
+        <v>660</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57509</v>
       </c>
-      <c r="B84" t="n">
-        <v>124610</v>
-      </c>
-      <c r="C84" t="s">
-        <v>742</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>744</v>
+        <v>662</v>
       </c>
       <c r="J84" t="s">
-        <v>745</v>
+        <v>663</v>
       </c>
       <c r="K84" t="s">
-        <v>746</v>
+        <v>664</v>
       </c>
       <c r="L84" t="s">
-        <v>747</v>
+        <v>665</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>748</v>
+        <v>666</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8849,54 +8221,50 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>747</v>
+        <v>665</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57509</v>
       </c>
-      <c r="B85" t="n">
-        <v>124611</v>
-      </c>
-      <c r="C85" t="s">
-        <v>749</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>751</v>
+        <v>668</v>
       </c>
       <c r="J85" t="s">
-        <v>752</v>
+        <v>669</v>
       </c>
       <c r="K85" t="s">
-        <v>753</v>
+        <v>670</v>
       </c>
       <c r="L85" t="s">
-        <v>754</v>
+        <v>671</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>748</v>
+        <v>666</v>
       </c>
       <c r="O85" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8914,60 +8282,56 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>755</v>
+        <v>672</v>
       </c>
       <c r="X85" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="Y85" t="s">
-        <v>757</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57509</v>
       </c>
-      <c r="B86" t="n">
-        <v>124612</v>
-      </c>
-      <c r="C86" t="s">
-        <v>758</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>759</v>
+        <v>675</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s">
-        <v>760</v>
+        <v>676</v>
       </c>
       <c r="J86" t="s">
-        <v>761</v>
+        <v>677</v>
       </c>
       <c r="K86" t="s">
-        <v>762</v>
+        <v>678</v>
       </c>
       <c r="L86" t="s">
-        <v>763</v>
+        <v>679</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>764</v>
+        <v>680</v>
       </c>
       <c r="O86" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8985,60 +8349,56 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>765</v>
+        <v>681</v>
       </c>
       <c r="X86" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="Y86" t="s">
-        <v>766</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57509</v>
       </c>
-      <c r="B87" t="n">
-        <v>124613</v>
-      </c>
-      <c r="C87" t="s">
-        <v>767</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>768</v>
+        <v>683</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I87" t="s">
-        <v>769</v>
+        <v>684</v>
       </c>
       <c r="J87" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
       <c r="K87" t="s">
-        <v>771</v>
+        <v>686</v>
       </c>
       <c r="L87" t="s">
-        <v>772</v>
+        <v>687</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>773</v>
+        <v>688</v>
       </c>
       <c r="O87" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -9056,60 +8416,56 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>765</v>
+        <v>681</v>
       </c>
       <c r="X87" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="Y87" t="s">
-        <v>774</v>
+        <v>689</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57509</v>
       </c>
-      <c r="B88" t="n">
-        <v>124614</v>
-      </c>
-      <c r="C88" t="s">
-        <v>775</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>776</v>
+        <v>690</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I88" t="s">
-        <v>777</v>
+        <v>691</v>
       </c>
       <c r="J88" t="s">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="K88" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="L88" t="s">
-        <v>780</v>
+        <v>694</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>720</v>
+        <v>642</v>
       </c>
       <c r="O88" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -9127,60 +8483,56 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>765</v>
+        <v>681</v>
       </c>
       <c r="X88" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="Y88" t="s">
-        <v>781</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57509</v>
       </c>
-      <c r="B89" t="n">
-        <v>124615</v>
-      </c>
-      <c r="C89" t="s">
-        <v>782</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>783</v>
+        <v>696</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I89" t="s">
-        <v>784</v>
+        <v>697</v>
       </c>
       <c r="J89" t="s">
-        <v>785</v>
+        <v>698</v>
       </c>
       <c r="K89" t="s">
-        <v>786</v>
+        <v>699</v>
       </c>
       <c r="L89" t="s">
-        <v>787</v>
+        <v>700</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>788</v>
+        <v>701</v>
       </c>
       <c r="O89" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -9198,60 +8550,56 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>765</v>
+        <v>681</v>
       </c>
       <c r="X89" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="Y89" t="s">
-        <v>789</v>
+        <v>702</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57509</v>
       </c>
-      <c r="B90" t="n">
-        <v>124616</v>
-      </c>
-      <c r="C90" t="s">
-        <v>790</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>791</v>
+        <v>703</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s">
-        <v>792</v>
+        <v>704</v>
       </c>
       <c r="J90" t="s">
-        <v>793</v>
+        <v>705</v>
       </c>
       <c r="K90" t="s">
-        <v>794</v>
+        <v>706</v>
       </c>
       <c r="L90" t="s">
-        <v>795</v>
+        <v>707</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>796</v>
+        <v>708</v>
       </c>
       <c r="O90" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -9273,60 +8621,56 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>765</v>
+        <v>681</v>
       </c>
       <c r="X90" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="Y90" t="s">
-        <v>797</v>
+        <v>709</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57509</v>
       </c>
-      <c r="B91" t="n">
-        <v>124617</v>
-      </c>
-      <c r="C91" t="s">
-        <v>798</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>799</v>
+        <v>710</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I91" t="s">
-        <v>800</v>
+        <v>711</v>
       </c>
       <c r="J91" t="s">
-        <v>801</v>
+        <v>712</v>
       </c>
       <c r="K91" t="s">
-        <v>802</v>
+        <v>713</v>
       </c>
       <c r="L91" t="s">
-        <v>803</v>
+        <v>714</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>804</v>
+        <v>715</v>
       </c>
       <c r="O91" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9350,54 +8694,50 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>803</v>
+        <v>714</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57509</v>
       </c>
-      <c r="B92" t="n">
-        <v>124618</v>
-      </c>
-      <c r="C92" t="s">
-        <v>805</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>806</v>
+        <v>716</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I92" t="s">
-        <v>807</v>
+        <v>717</v>
       </c>
       <c r="J92" t="s">
-        <v>808</v>
+        <v>718</v>
       </c>
       <c r="K92" t="s">
-        <v>809</v>
+        <v>719</v>
       </c>
       <c r="L92" t="s">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>811</v>
+        <v>721</v>
       </c>
       <c r="O92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -9413,60 +8753,56 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>812</v>
+        <v>722</v>
       </c>
       <c r="X92" t="s">
-        <v>813</v>
+        <v>723</v>
       </c>
       <c r="Y92" t="s">
-        <v>814</v>
+        <v>724</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57509</v>
       </c>
-      <c r="B93" t="n">
-        <v>124619</v>
-      </c>
-      <c r="C93" t="s">
-        <v>815</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>816</v>
+        <v>725</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I93" t="s">
-        <v>817</v>
+        <v>726</v>
       </c>
       <c r="J93" t="s">
-        <v>818</v>
+        <v>727</v>
       </c>
       <c r="K93" t="s">
-        <v>819</v>
+        <v>728</v>
       </c>
       <c r="L93" t="s">
-        <v>820</v>
+        <v>729</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>811</v>
+        <v>721</v>
       </c>
       <c r="O93" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9490,54 +8826,50 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>820</v>
+        <v>729</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57509</v>
       </c>
-      <c r="B94" t="n">
-        <v>124620</v>
-      </c>
-      <c r="C94" t="s">
-        <v>821</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>822</v>
+        <v>730</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I94" t="s">
-        <v>823</v>
+        <v>731</v>
       </c>
       <c r="J94" t="s">
-        <v>824</v>
+        <v>732</v>
       </c>
       <c r="K94" t="s">
-        <v>825</v>
+        <v>733</v>
       </c>
       <c r="L94" t="s">
-        <v>826</v>
+        <v>734</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>811</v>
+        <v>721</v>
       </c>
       <c r="O94" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9559,60 +8891,56 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>827</v>
+        <v>735</v>
       </c>
       <c r="X94" t="s">
-        <v>828</v>
+        <v>736</v>
       </c>
       <c r="Y94" t="s">
-        <v>829</v>
+        <v>737</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57509</v>
       </c>
-      <c r="B95" t="n">
-        <v>16545</v>
-      </c>
-      <c r="C95" t="s">
-        <v>830</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>831</v>
+        <v>738</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I95" t="s">
-        <v>832</v>
+        <v>739</v>
       </c>
       <c r="J95" t="s">
-        <v>833</v>
+        <v>740</v>
       </c>
       <c r="K95" t="s">
-        <v>834</v>
+        <v>741</v>
       </c>
       <c r="L95" t="s">
-        <v>835</v>
+        <v>742</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>836</v>
+        <v>743</v>
       </c>
       <c r="O95" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9636,54 +8964,50 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>835</v>
+        <v>742</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>57509</v>
       </c>
-      <c r="B96" t="n">
-        <v>124621</v>
-      </c>
-      <c r="C96" t="s">
-        <v>837</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>838</v>
+        <v>744</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I96" t="s">
-        <v>839</v>
+        <v>745</v>
       </c>
       <c r="J96" t="s">
-        <v>840</v>
+        <v>746</v>
       </c>
       <c r="K96" t="s">
-        <v>841</v>
+        <v>747</v>
       </c>
       <c r="L96" t="s">
-        <v>842</v>
+        <v>748</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>843</v>
+        <v>749</v>
       </c>
       <c r="O96" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9707,54 +9031,50 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>842</v>
+        <v>748</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>57509</v>
       </c>
-      <c r="B97" t="n">
-        <v>124622</v>
-      </c>
-      <c r="C97" t="s">
-        <v>844</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>845</v>
+        <v>750</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I97" t="s">
-        <v>846</v>
+        <v>751</v>
       </c>
       <c r="J97" t="s">
-        <v>847</v>
+        <v>752</v>
       </c>
       <c r="K97" t="s">
-        <v>848</v>
+        <v>753</v>
       </c>
       <c r="L97" t="s">
-        <v>849</v>
+        <v>754</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>850</v>
+        <v>755</v>
       </c>
       <c r="O97" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9778,54 +9098,50 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>849</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>57509</v>
       </c>
-      <c r="B98" t="n">
-        <v>124623</v>
-      </c>
-      <c r="C98" t="s">
-        <v>851</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I98" t="s">
-        <v>853</v>
+        <v>757</v>
       </c>
       <c r="J98" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="K98" t="s">
-        <v>855</v>
+        <v>759</v>
       </c>
       <c r="L98" t="s">
-        <v>856</v>
+        <v>760</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>857</v>
+        <v>761</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9849,54 +9165,50 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>858</v>
+        <v>762</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>57509</v>
       </c>
-      <c r="B99" t="n">
-        <v>124624</v>
-      </c>
-      <c r="C99" t="s">
-        <v>859</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>860</v>
+        <v>763</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I99" t="s">
-        <v>861</v>
+        <v>764</v>
       </c>
       <c r="J99" t="s">
-        <v>862</v>
+        <v>765</v>
       </c>
       <c r="K99" t="s">
-        <v>863</v>
+        <v>766</v>
       </c>
       <c r="L99" t="s">
-        <v>864</v>
+        <v>767</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="O99" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9920,54 +9232,50 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>864</v>
+        <v>767</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>57509</v>
       </c>
-      <c r="B100" t="n">
-        <v>124625</v>
-      </c>
-      <c r="C100" t="s">
-        <v>866</v>
-      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>867</v>
+        <v>769</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I100" t="s">
-        <v>868</v>
+        <v>770</v>
       </c>
       <c r="J100" t="s">
-        <v>869</v>
+        <v>771</v>
       </c>
       <c r="K100" t="s">
-        <v>870</v>
+        <v>772</v>
       </c>
       <c r="L100" t="s">
-        <v>871</v>
+        <v>773</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="O100" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -9991,54 +9299,50 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>57509</v>
       </c>
-      <c r="B101" t="n">
-        <v>124626</v>
-      </c>
-      <c r="C101" t="s">
-        <v>873</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>874</v>
+        <v>775</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I101" t="s">
-        <v>875</v>
+        <v>776</v>
       </c>
       <c r="J101" t="s">
-        <v>876</v>
+        <v>777</v>
       </c>
       <c r="K101" t="s">
-        <v>877</v>
+        <v>778</v>
       </c>
       <c r="L101" t="s">
-        <v>878</v>
+        <v>779</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>879</v>
+        <v>780</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -10062,54 +9366,50 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>880</v>
+        <v>781</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>57509</v>
       </c>
-      <c r="B102" t="n">
-        <v>124627</v>
-      </c>
-      <c r="C102" t="s">
-        <v>881</v>
-      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>882</v>
+        <v>782</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I102" t="s">
-        <v>883</v>
+        <v>783</v>
       </c>
       <c r="J102" t="s">
-        <v>884</v>
+        <v>784</v>
       </c>
       <c r="K102" t="s">
-        <v>885</v>
+        <v>785</v>
       </c>
       <c r="L102" t="s">
-        <v>886</v>
+        <v>786</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>887</v>
+        <v>787</v>
       </c>
       <c r="O102" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -10133,7 +9433,7 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>888</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
